--- a/document/checklist/Checklist_DeleteRole.xlsx
+++ b/document/checklist/Checklist_DeleteRole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PHP-Laravel\Fresher - small project\document\checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE9BBFB-396A-445B-BBA7-E3D115766224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBD02E1-A275-4405-BB80-4DF44BAB1255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Histories" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="120">
   <si>
     <t>Project name</t>
   </si>
@@ -516,6 +516,18 @@
 */</t>
     </r>
   </si>
+  <si>
+    <t>3. Validate Required Fields and Existing Validation</t>
+  </si>
+  <si>
+    <t>Check if Name (EN) is blank</t>
+  </si>
+  <si>
+    <t>Check if Name (EN) is over 255 character</t>
+  </si>
+  <si>
+    <t>Check if Name (EN) is already exist</t>
+  </si>
 </sst>
 </file>
 
@@ -525,7 +537,7 @@
     <numFmt numFmtId="164" formatCode="0.0_ "/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,8 +683,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -725,6 +748,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -979,7 +1008,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1079,27 +1108,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,6 +1147,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1125,20 +1163,168 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,15 +1349,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1193,154 +1370,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1350,45 +1394,78 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1424,8 +1501,8 @@
     <xdr:to>
       <xdr:col>92</xdr:col>
       <xdr:colOff>859292</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>48307</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>424825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1676,16 +1753,16 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="3" t="s">
         <v>70</v>
       </c>
@@ -1747,16 +1824,16 @@
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
       <c r="N3" s="29" t="s">
         <v>73</v>
       </c>
@@ -1818,16 +1895,16 @@
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="3"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
@@ -1851,35 +1928,35 @@
       <c r="AF4" s="33"/>
       <c r="AG4" s="33"/>
       <c r="AH4" s="33"/>
-      <c r="AI4" s="45" t="s">
+      <c r="AI4" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="39"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="42"/>
     </row>
     <row r="5" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -1887,16 +1964,16 @@
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="3" t="s">
         <v>75</v>
       </c>
@@ -1954,64 +2031,64 @@
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="47"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="47"/>
-      <c r="BE6" s="47"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="50"/>
     </row>
     <row r="7" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -2019,62 +2096,62 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="50"/>
-      <c r="BA7" s="50"/>
-      <c r="BB7" s="50"/>
-      <c r="BC7" s="50"/>
-      <c r="BD7" s="50"/>
-      <c r="BE7" s="50"/>
-      <c r="BF7" s="50"/>
-      <c r="BG7" s="50"/>
-      <c r="BH7" s="50"/>
-      <c r="BI7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="52"/>
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="52"/>
+      <c r="BB7" s="52"/>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="52"/>
+      <c r="BI7" s="53"/>
     </row>
     <row r="8" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -2141,1019 +2218,970 @@
     </row>
     <row r="9" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="38"/>
-      <c r="AR9" s="38"/>
-      <c r="AS9" s="38"/>
-      <c r="AT9" s="38"/>
-      <c r="AU9" s="38"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38"/>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38"/>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="38"/>
-      <c r="BG9" s="38"/>
-      <c r="BH9" s="38"/>
-      <c r="BI9" s="39"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="41"/>
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="41"/>
+      <c r="AY9" s="41"/>
+      <c r="AZ9" s="41"/>
+      <c r="BA9" s="41"/>
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="41"/>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="41"/>
+      <c r="BG9" s="41"/>
+      <c r="BH9" s="41"/>
+      <c r="BI9" s="42"/>
     </row>
     <row r="10" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="56" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="56" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="38"/>
-      <c r="AK10" s="38"/>
-      <c r="AL10" s="38"/>
-      <c r="AM10" s="38"/>
-      <c r="AN10" s="38"/>
-      <c r="AO10" s="38"/>
-      <c r="AP10" s="38"/>
-      <c r="AQ10" s="38"/>
-      <c r="AR10" s="38"/>
-      <c r="AS10" s="38"/>
-      <c r="AT10" s="38"/>
-      <c r="AU10" s="38"/>
-      <c r="AV10" s="38"/>
-      <c r="AW10" s="38"/>
-      <c r="AX10" s="38"/>
-      <c r="AY10" s="38"/>
-      <c r="AZ10" s="38"/>
-      <c r="BA10" s="38"/>
-      <c r="BB10" s="38"/>
-      <c r="BC10" s="38"/>
-      <c r="BD10" s="38"/>
-      <c r="BE10" s="39"/>
-      <c r="BF10" s="55" t="s">
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="41"/>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="41"/>
+      <c r="AY10" s="41"/>
+      <c r="AZ10" s="41"/>
+      <c r="BA10" s="41"/>
+      <c r="BB10" s="41"/>
+      <c r="BC10" s="41"/>
+      <c r="BD10" s="41"/>
+      <c r="BE10" s="42"/>
+      <c r="BF10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="BG10" s="50"/>
-      <c r="BH10" s="50"/>
-      <c r="BI10" s="51"/>
+      <c r="BG10" s="52"/>
+      <c r="BH10" s="52"/>
+      <c r="BI10" s="53"/>
     </row>
     <row r="11" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="44" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="37" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="38"/>
-      <c r="AM11" s="38"/>
-      <c r="AN11" s="38"/>
-      <c r="AO11" s="38"/>
-      <c r="AP11" s="38"/>
-      <c r="AQ11" s="38"/>
-      <c r="AR11" s="38"/>
-      <c r="AS11" s="38"/>
-      <c r="AT11" s="38"/>
-      <c r="AU11" s="38"/>
-      <c r="AV11" s="38"/>
-      <c r="AW11" s="38"/>
-      <c r="AX11" s="38"/>
-      <c r="AY11" s="38"/>
-      <c r="AZ11" s="38"/>
-      <c r="BA11" s="38"/>
-      <c r="BB11" s="38"/>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="39"/>
-      <c r="BF11" s="40" t="s">
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+      <c r="AM11" s="41"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="41"/>
+      <c r="AP11" s="41"/>
+      <c r="AQ11" s="41"/>
+      <c r="AR11" s="41"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="41"/>
+      <c r="AV11" s="41"/>
+      <c r="AW11" s="41"/>
+      <c r="AX11" s="41"/>
+      <c r="AY11" s="41"/>
+      <c r="AZ11" s="41"/>
+      <c r="BA11" s="41"/>
+      <c r="BB11" s="41"/>
+      <c r="BC11" s="41"/>
+      <c r="BD11" s="41"/>
+      <c r="BE11" s="42"/>
+      <c r="BF11" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="BG11" s="38"/>
-      <c r="BH11" s="38"/>
-      <c r="BI11" s="39"/>
+      <c r="BG11" s="41"/>
+      <c r="BH11" s="41"/>
+      <c r="BI11" s="42"/>
     </row>
     <row r="12" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="44" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="37" t="s">
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="38"/>
-      <c r="BA12" s="38"/>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="38"/>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="39"/>
-      <c r="BF12" s="40" t="s">
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="41"/>
+      <c r="AM12" s="41"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="41"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
+      <c r="AZ12" s="41"/>
+      <c r="BA12" s="41"/>
+      <c r="BB12" s="41"/>
+      <c r="BC12" s="41"/>
+      <c r="BD12" s="41"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="BG12" s="38"/>
-      <c r="BH12" s="38"/>
-      <c r="BI12" s="39"/>
+      <c r="BG12" s="41"/>
+      <c r="BH12" s="41"/>
+      <c r="BI12" s="42"/>
     </row>
     <row r="13" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
-      <c r="AO13" s="38"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
-      <c r="AY13" s="38"/>
-      <c r="AZ13" s="38"/>
-      <c r="BA13" s="38"/>
-      <c r="BB13" s="38"/>
-      <c r="BC13" s="38"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="39"/>
-      <c r="BF13" s="40"/>
-      <c r="BG13" s="38"/>
-      <c r="BH13" s="38"/>
-      <c r="BI13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="41"/>
+      <c r="AW13" s="41"/>
+      <c r="AX13" s="41"/>
+      <c r="AY13" s="41"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="41"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="41"/>
+      <c r="BD13" s="41"/>
+      <c r="BE13" s="42"/>
+      <c r="BF13" s="45"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="41"/>
+      <c r="BI13" s="42"/>
     </row>
     <row r="14" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
-      <c r="AQ14" s="38"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="38"/>
-      <c r="AT14" s="38"/>
-      <c r="AU14" s="38"/>
-      <c r="AV14" s="38"/>
-      <c r="AW14" s="38"/>
-      <c r="AX14" s="38"/>
-      <c r="AY14" s="38"/>
-      <c r="AZ14" s="38"/>
-      <c r="BA14" s="38"/>
-      <c r="BB14" s="38"/>
-      <c r="BC14" s="38"/>
-      <c r="BD14" s="38"/>
-      <c r="BE14" s="39"/>
-      <c r="BF14" s="40"/>
-      <c r="BG14" s="38"/>
-      <c r="BH14" s="38"/>
-      <c r="BI14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="41"/>
+      <c r="AV14" s="41"/>
+      <c r="AW14" s="41"/>
+      <c r="AX14" s="41"/>
+      <c r="AY14" s="41"/>
+      <c r="AZ14" s="41"/>
+      <c r="BA14" s="41"/>
+      <c r="BB14" s="41"/>
+      <c r="BC14" s="41"/>
+      <c r="BD14" s="41"/>
+      <c r="BE14" s="42"/>
+      <c r="BF14" s="45"/>
+      <c r="BG14" s="41"/>
+      <c r="BH14" s="41"/>
+      <c r="BI14" s="42"/>
     </row>
     <row r="15" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="38"/>
-      <c r="AT15" s="38"/>
-      <c r="AU15" s="38"/>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="38"/>
-      <c r="AX15" s="38"/>
-      <c r="AY15" s="38"/>
-      <c r="AZ15" s="38"/>
-      <c r="BA15" s="38"/>
-      <c r="BB15" s="38"/>
-      <c r="BC15" s="38"/>
-      <c r="BD15" s="38"/>
-      <c r="BE15" s="39"/>
-      <c r="BF15" s="40"/>
-      <c r="BG15" s="38"/>
-      <c r="BH15" s="38"/>
-      <c r="BI15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="41"/>
+      <c r="BA15" s="41"/>
+      <c r="BB15" s="41"/>
+      <c r="BC15" s="41"/>
+      <c r="BD15" s="41"/>
+      <c r="BE15" s="42"/>
+      <c r="BF15" s="45"/>
+      <c r="BG15" s="41"/>
+      <c r="BH15" s="41"/>
+      <c r="BI15" s="42"/>
     </row>
     <row r="16" spans="1:61" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="38"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
-      <c r="AO16" s="38"/>
-      <c r="AP16" s="38"/>
-      <c r="AQ16" s="38"/>
-      <c r="AR16" s="38"/>
-      <c r="AS16" s="38"/>
-      <c r="AT16" s="38"/>
-      <c r="AU16" s="38"/>
-      <c r="AV16" s="38"/>
-      <c r="AW16" s="38"/>
-      <c r="AX16" s="38"/>
-      <c r="AY16" s="38"/>
-      <c r="AZ16" s="38"/>
-      <c r="BA16" s="38"/>
-      <c r="BB16" s="38"/>
-      <c r="BC16" s="38"/>
-      <c r="BD16" s="38"/>
-      <c r="BE16" s="39"/>
-      <c r="BF16" s="40"/>
-      <c r="BG16" s="38"/>
-      <c r="BH16" s="38"/>
-      <c r="BI16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="41"/>
+      <c r="AP16" s="41"/>
+      <c r="AQ16" s="41"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="41"/>
+      <c r="AU16" s="41"/>
+      <c r="AV16" s="41"/>
+      <c r="AW16" s="41"/>
+      <c r="AX16" s="41"/>
+      <c r="AY16" s="41"/>
+      <c r="AZ16" s="41"/>
+      <c r="BA16" s="41"/>
+      <c r="BB16" s="41"/>
+      <c r="BC16" s="41"/>
+      <c r="BD16" s="41"/>
+      <c r="BE16" s="42"/>
+      <c r="BF16" s="45"/>
+      <c r="BG16" s="41"/>
+      <c r="BH16" s="41"/>
+      <c r="BI16" s="42"/>
     </row>
     <row r="17" spans="2:61" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="41"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="38"/>
-      <c r="AT17" s="38"/>
-      <c r="AU17" s="38"/>
-      <c r="AV17" s="38"/>
-      <c r="AW17" s="38"/>
-      <c r="AX17" s="38"/>
-      <c r="AY17" s="38"/>
-      <c r="AZ17" s="38"/>
-      <c r="BA17" s="38"/>
-      <c r="BB17" s="38"/>
-      <c r="BC17" s="38"/>
-      <c r="BD17" s="38"/>
-      <c r="BE17" s="39"/>
-      <c r="BF17" s="40"/>
-      <c r="BG17" s="38"/>
-      <c r="BH17" s="38"/>
-      <c r="BI17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="41"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="41"/>
+      <c r="AV17" s="41"/>
+      <c r="AW17" s="41"/>
+      <c r="AX17" s="41"/>
+      <c r="AY17" s="41"/>
+      <c r="AZ17" s="41"/>
+      <c r="BA17" s="41"/>
+      <c r="BB17" s="41"/>
+      <c r="BC17" s="41"/>
+      <c r="BD17" s="41"/>
+      <c r="BE17" s="42"/>
+      <c r="BF17" s="45"/>
+      <c r="BG17" s="41"/>
+      <c r="BH17" s="41"/>
+      <c r="BI17" s="42"/>
     </row>
     <row r="18" spans="2:61" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="41"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="38"/>
-      <c r="AX18" s="38"/>
-      <c r="AY18" s="38"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="39"/>
-      <c r="BF18" s="40"/>
-      <c r="BG18" s="38"/>
-      <c r="BH18" s="38"/>
-      <c r="BI18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="41"/>
+      <c r="AW18" s="41"/>
+      <c r="AX18" s="41"/>
+      <c r="AY18" s="41"/>
+      <c r="AZ18" s="41"/>
+      <c r="BA18" s="41"/>
+      <c r="BB18" s="41"/>
+      <c r="BC18" s="41"/>
+      <c r="BD18" s="41"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="45"/>
+      <c r="BG18" s="41"/>
+      <c r="BH18" s="41"/>
+      <c r="BI18" s="42"/>
     </row>
     <row r="19" spans="2:61" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="41"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
-      <c r="AO19" s="38"/>
-      <c r="AP19" s="38"/>
-      <c r="AQ19" s="38"/>
-      <c r="AR19" s="38"/>
-      <c r="AS19" s="38"/>
-      <c r="AT19" s="38"/>
-      <c r="AU19" s="38"/>
-      <c r="AV19" s="38"/>
-      <c r="AW19" s="38"/>
-      <c r="AX19" s="38"/>
-      <c r="AY19" s="38"/>
-      <c r="AZ19" s="38"/>
-      <c r="BA19" s="38"/>
-      <c r="BB19" s="38"/>
-      <c r="BC19" s="38"/>
-      <c r="BD19" s="38"/>
-      <c r="BE19" s="39"/>
-      <c r="BF19" s="40"/>
-      <c r="BG19" s="38"/>
-      <c r="BH19" s="38"/>
-      <c r="BI19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="41"/>
+      <c r="AO19" s="41"/>
+      <c r="AP19" s="41"/>
+      <c r="AQ19" s="41"/>
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="41"/>
+      <c r="AT19" s="41"/>
+      <c r="AU19" s="41"/>
+      <c r="AV19" s="41"/>
+      <c r="AW19" s="41"/>
+      <c r="AX19" s="41"/>
+      <c r="AY19" s="41"/>
+      <c r="AZ19" s="41"/>
+      <c r="BA19" s="41"/>
+      <c r="BB19" s="41"/>
+      <c r="BC19" s="41"/>
+      <c r="BD19" s="41"/>
+      <c r="BE19" s="42"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="41"/>
+      <c r="BH19" s="41"/>
+      <c r="BI19" s="42"/>
     </row>
     <row r="20" spans="2:61" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
-      <c r="AO20" s="38"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="38"/>
-      <c r="AU20" s="38"/>
-      <c r="AV20" s="38"/>
-      <c r="AW20" s="38"/>
-      <c r="AX20" s="38"/>
-      <c r="AY20" s="38"/>
-      <c r="AZ20" s="38"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="38"/>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="39"/>
-      <c r="BF20" s="40"/>
-      <c r="BG20" s="38"/>
-      <c r="BH20" s="38"/>
-      <c r="BI20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="41"/>
+      <c r="AV20" s="41"/>
+      <c r="AW20" s="41"/>
+      <c r="AX20" s="41"/>
+      <c r="AY20" s="41"/>
+      <c r="AZ20" s="41"/>
+      <c r="BA20" s="41"/>
+      <c r="BB20" s="41"/>
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="41"/>
+      <c r="BE20" s="42"/>
+      <c r="BF20" s="45"/>
+      <c r="BG20" s="41"/>
+      <c r="BH20" s="41"/>
+      <c r="BI20" s="42"/>
     </row>
     <row r="21" spans="2:61" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="41"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
-      <c r="BE21" s="39"/>
-      <c r="BF21" s="40"/>
-      <c r="BG21" s="38"/>
-      <c r="BH21" s="38"/>
-      <c r="BI21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="41"/>
+      <c r="AM21" s="41"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41"/>
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="41"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="41"/>
+      <c r="AV21" s="41"/>
+      <c r="AW21" s="41"/>
+      <c r="AX21" s="41"/>
+      <c r="AY21" s="41"/>
+      <c r="AZ21" s="41"/>
+      <c r="BA21" s="41"/>
+      <c r="BB21" s="41"/>
+      <c r="BC21" s="41"/>
+      <c r="BD21" s="41"/>
+      <c r="BE21" s="42"/>
+      <c r="BF21" s="45"/>
+      <c r="BG21" s="41"/>
+      <c r="BH21" s="41"/>
+      <c r="BI21" s="42"/>
     </row>
     <row r="22" spans="2:61" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="41"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="38"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="38"/>
-      <c r="AS22" s="38"/>
-      <c r="AT22" s="38"/>
-      <c r="AU22" s="38"/>
-      <c r="AV22" s="38"/>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="38"/>
-      <c r="AY22" s="38"/>
-      <c r="AZ22" s="38"/>
-      <c r="BA22" s="38"/>
-      <c r="BB22" s="38"/>
-      <c r="BC22" s="38"/>
-      <c r="BD22" s="38"/>
-      <c r="BE22" s="39"/>
-      <c r="BF22" s="40"/>
-      <c r="BG22" s="38"/>
-      <c r="BH22" s="38"/>
-      <c r="BI22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="41"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="41"/>
+      <c r="AO22" s="41"/>
+      <c r="AP22" s="41"/>
+      <c r="AQ22" s="41"/>
+      <c r="AR22" s="41"/>
+      <c r="AS22" s="41"/>
+      <c r="AT22" s="41"/>
+      <c r="AU22" s="41"/>
+      <c r="AV22" s="41"/>
+      <c r="AW22" s="41"/>
+      <c r="AX22" s="41"/>
+      <c r="AY22" s="41"/>
+      <c r="AZ22" s="41"/>
+      <c r="BA22" s="41"/>
+      <c r="BB22" s="41"/>
+      <c r="BC22" s="41"/>
+      <c r="BD22" s="41"/>
+      <c r="BE22" s="42"/>
+      <c r="BF22" s="45"/>
+      <c r="BG22" s="41"/>
+      <c r="BH22" s="41"/>
+      <c r="BI22" s="42"/>
     </row>
     <row r="23" spans="2:61" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="41"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="38"/>
-      <c r="AS23" s="38"/>
-      <c r="AT23" s="38"/>
-      <c r="AU23" s="38"/>
-      <c r="AV23" s="38"/>
-      <c r="AW23" s="38"/>
-      <c r="AX23" s="38"/>
-      <c r="AY23" s="38"/>
-      <c r="AZ23" s="38"/>
-      <c r="BA23" s="38"/>
-      <c r="BB23" s="38"/>
-      <c r="BC23" s="38"/>
-      <c r="BD23" s="38"/>
-      <c r="BE23" s="39"/>
-      <c r="BF23" s="40"/>
-      <c r="BG23" s="38"/>
-      <c r="BH23" s="38"/>
-      <c r="BI23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AK23" s="41"/>
+      <c r="AL23" s="41"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="41"/>
+      <c r="BA23" s="41"/>
+      <c r="BB23" s="41"/>
+      <c r="BC23" s="41"/>
+      <c r="BD23" s="41"/>
+      <c r="BE23" s="42"/>
+      <c r="BF23" s="45"/>
+      <c r="BG23" s="41"/>
+      <c r="BH23" s="41"/>
+      <c r="BI23" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:BE22"/>
-    <mergeCell ref="BF22:BI22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:BE23"/>
-    <mergeCell ref="BF23:BI23"/>
-    <mergeCell ref="P15:BE15"/>
-    <mergeCell ref="BF15:BI15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:BE16"/>
-    <mergeCell ref="BF16:BI16"/>
-    <mergeCell ref="P12:BE12"/>
-    <mergeCell ref="BF12:BI12"/>
-    <mergeCell ref="P13:BE13"/>
-    <mergeCell ref="BF13:BI13"/>
-    <mergeCell ref="P14:BE14"/>
-    <mergeCell ref="BF14:BI14"/>
-    <mergeCell ref="AI4:BI4"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:BE11"/>
-    <mergeCell ref="N6:BI7"/>
-    <mergeCell ref="B9:BI9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:BE10"/>
-    <mergeCell ref="BF10:BI10"/>
-    <mergeCell ref="BF11:BI11"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:O20"/>
     <mergeCell ref="P21:BE21"/>
     <mergeCell ref="BF21:BI21"/>
     <mergeCell ref="B17:G17"/>
@@ -3170,6 +3198,55 @@
     <mergeCell ref="P19:BE19"/>
     <mergeCell ref="BF19:BI19"/>
     <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="AI4:BI4"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:BE11"/>
+    <mergeCell ref="N6:BI7"/>
+    <mergeCell ref="B9:BI9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:BE10"/>
+    <mergeCell ref="BF10:BI10"/>
+    <mergeCell ref="BF11:BI11"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="P12:BE12"/>
+    <mergeCell ref="BF12:BI12"/>
+    <mergeCell ref="P13:BE13"/>
+    <mergeCell ref="BF13:BI13"/>
+    <mergeCell ref="P14:BE14"/>
+    <mergeCell ref="BF14:BI14"/>
+    <mergeCell ref="P15:BE15"/>
+    <mergeCell ref="BF15:BI15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:BE16"/>
+    <mergeCell ref="BF16:BI16"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:BE22"/>
+    <mergeCell ref="BF22:BI22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:BE23"/>
+    <mergeCell ref="BF23:BI23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3178,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82328D55-73A7-46F1-ADC6-4764245050DD}">
-  <dimension ref="B2:BZ36"/>
+  <dimension ref="B2:BZ40"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="CD39" sqref="CD39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3202,16 +3279,16 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="3" t="s">
         <v>70</v>
       </c>
@@ -3284,16 +3361,16 @@
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
       <c r="N3" s="29" t="s">
         <v>73</v>
       </c>
@@ -3366,16 +3443,16 @@
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="3"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
@@ -3399,35 +3476,35 @@
       <c r="AF4" s="33"/>
       <c r="AG4" s="33"/>
       <c r="AH4" s="33"/>
-      <c r="AI4" s="45" t="s">
+      <c r="AI4" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="39"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="42"/>
       <c r="BJ4" s="13"/>
       <c r="BK4" s="13"/>
       <c r="BL4" s="1"/>
@@ -3446,16 +3523,16 @@
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="3" t="s">
         <v>75</v>
       </c>
@@ -3524,64 +3601,64 @@
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="47"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="47"/>
-      <c r="BE6" s="47"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="50"/>
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
       <c r="BL6" s="1"/>
@@ -3600,62 +3677,62 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="50"/>
-      <c r="BA7" s="50"/>
-      <c r="BB7" s="50"/>
-      <c r="BC7" s="50"/>
-      <c r="BD7" s="50"/>
-      <c r="BE7" s="50"/>
-      <c r="BF7" s="50"/>
-      <c r="BG7" s="50"/>
-      <c r="BH7" s="50"/>
-      <c r="BI7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="52"/>
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="52"/>
+      <c r="BB7" s="52"/>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="52"/>
+      <c r="BI7" s="53"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -3795,14 +3872,14 @@
       <c r="AX9" s="1"/>
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
-      <c r="BA9" s="129" t="s">
+      <c r="BA9" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="BB9" s="60"/>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="61"/>
+      <c r="BB9" s="61"/>
+      <c r="BC9" s="61"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="61"/>
+      <c r="BF9" s="62"/>
       <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
@@ -3871,14 +3948,14 @@
       <c r="AX10" s="1"/>
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
-      <c r="BA10" s="120" t="s">
+      <c r="BA10" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="61"/>
+      <c r="BB10" s="61"/>
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="61"/>
+      <c r="BF10" s="62"/>
       <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
@@ -3947,14 +4024,14 @@
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
-      <c r="BA11" s="120" t="s">
+      <c r="BA11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="60"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="61"/>
+      <c r="BB11" s="61"/>
+      <c r="BC11" s="61"/>
+      <c r="BD11" s="61"/>
+      <c r="BE11" s="61"/>
+      <c r="BF11" s="62"/>
       <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
@@ -3978,37 +4055,37 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="119" t="str">
+      <c r="F12" s="65" t="str">
         <f>BA10</f>
         <v>Pass</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="119" t="str">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65" t="str">
         <f>BA11</f>
         <v>Fail</v>
       </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="119" t="str">
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="65" t="str">
         <f>BA12</f>
         <v>Pending</v>
       </c>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="119" t="str">
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="65" t="str">
         <f>BA13</f>
         <v>Uncheck</v>
       </c>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="119" t="s">
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="U12" s="60"/>
-      <c r="V12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="62"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -4039,14 +4116,14 @@
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
-      <c r="BA12" s="120" t="s">
+      <c r="BA12" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="60"/>
-      <c r="BD12" s="60"/>
-      <c r="BE12" s="60"/>
-      <c r="BF12" s="61"/>
+      <c r="BB12" s="61"/>
+      <c r="BC12" s="61"/>
+      <c r="BD12" s="61"/>
+      <c r="BE12" s="61"/>
+      <c r="BF12" s="62"/>
       <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
@@ -4068,38 +4145,38 @@
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="128">
+      <c r="F13" s="60">
         <f>COUNTIF($BH$17:$BL$24,$BA$10)</f>
         <v>6</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="128">
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="60">
         <f>COUNTIF($BH$17:$BL$24,$BA$11)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="128">
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="60">
         <f>COUNTIF($BH$17:$BL$24,$BA$12)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="128">
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="60">
         <f>COUNTIF($BH$17:$BL$24,$BA$13)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="128">
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="60">
         <f>SUM(F13:S13)</f>
         <v>6</v>
       </c>
-      <c r="U13" s="60"/>
-      <c r="V13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="62"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -4130,14 +4207,14 @@
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
-      <c r="BA13" s="120" t="s">
+      <c r="BA13" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="BB13" s="60"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="60"/>
-      <c r="BE13" s="60"/>
-      <c r="BF13" s="61"/>
+      <c r="BB13" s="61"/>
+      <c r="BC13" s="61"/>
+      <c r="BD13" s="61"/>
+      <c r="BE13" s="61"/>
+      <c r="BF13" s="62"/>
       <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
@@ -4229,343 +4306,343 @@
       <c r="BZ14" s="25"/>
     </row>
     <row r="15" spans="2:78" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="101" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="60"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="101"/>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="60"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="60"/>
-      <c r="AU15" s="61"/>
-      <c r="AV15" s="101" t="s">
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="61"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="61"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="61"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="61"/>
+      <c r="AT15" s="61"/>
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="60"/>
-      <c r="AZ15" s="60"/>
-      <c r="BA15" s="61"/>
-      <c r="BB15" s="101" t="s">
+      <c r="AW15" s="61"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="61"/>
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="62"/>
+      <c r="BB15" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="BC15" s="60"/>
-      <c r="BD15" s="60"/>
-      <c r="BE15" s="60"/>
-      <c r="BF15" s="60"/>
-      <c r="BG15" s="61"/>
-      <c r="BH15" s="101" t="s">
+      <c r="BC15" s="61"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="61"/>
+      <c r="BF15" s="61"/>
+      <c r="BG15" s="62"/>
+      <c r="BH15" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="BI15" s="60"/>
-      <c r="BJ15" s="60"/>
-      <c r="BK15" s="60"/>
-      <c r="BL15" s="61"/>
-      <c r="BM15" s="101" t="s">
+      <c r="BI15" s="61"/>
+      <c r="BJ15" s="61"/>
+      <c r="BK15" s="61"/>
+      <c r="BL15" s="62"/>
+      <c r="BM15" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="BN15" s="60"/>
-      <c r="BO15" s="60"/>
-      <c r="BP15" s="60"/>
-      <c r="BQ15" s="60"/>
-      <c r="BR15" s="60"/>
-      <c r="BS15" s="60"/>
-      <c r="BT15" s="60"/>
-      <c r="BU15" s="60"/>
-      <c r="BV15" s="60"/>
-      <c r="BW15" s="60"/>
-      <c r="BX15" s="60"/>
-      <c r="BY15" s="60"/>
-      <c r="BZ15" s="38"/>
+      <c r="BN15" s="61"/>
+      <c r="BO15" s="61"/>
+      <c r="BP15" s="61"/>
+      <c r="BQ15" s="61"/>
+      <c r="BR15" s="61"/>
+      <c r="BS15" s="61"/>
+      <c r="BT15" s="61"/>
+      <c r="BU15" s="61"/>
+      <c r="BV15" s="61"/>
+      <c r="BW15" s="61"/>
+      <c r="BX15" s="61"/>
+      <c r="BY15" s="61"/>
+      <c r="BZ15" s="41"/>
     </row>
     <row r="16" spans="2:78" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="102"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
-      <c r="T16" s="103"/>
-      <c r="U16" s="103"/>
-      <c r="V16" s="103"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="103"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="103"/>
-      <c r="AC16" s="103"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="103"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="103"/>
-      <c r="AH16" s="103"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="103"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="103"/>
-      <c r="AO16" s="106"/>
-      <c r="AP16" s="102"/>
-      <c r="AQ16" s="103"/>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="103"/>
-      <c r="AT16" s="103"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="102"/>
-      <c r="AW16" s="103"/>
-      <c r="AX16" s="103"/>
-      <c r="AY16" s="103"/>
-      <c r="AZ16" s="103"/>
-      <c r="BA16" s="104"/>
-      <c r="BB16" s="107"/>
-      <c r="BC16" s="103"/>
-      <c r="BD16" s="103"/>
-      <c r="BE16" s="103"/>
-      <c r="BF16" s="103"/>
-      <c r="BG16" s="104"/>
-      <c r="BH16" s="102"/>
-      <c r="BI16" s="103"/>
-      <c r="BJ16" s="103"/>
-      <c r="BK16" s="103"/>
-      <c r="BL16" s="104"/>
-      <c r="BM16" s="105"/>
-      <c r="BN16" s="103"/>
-      <c r="BO16" s="103"/>
-      <c r="BP16" s="103"/>
-      <c r="BQ16" s="103"/>
-      <c r="BR16" s="103"/>
-      <c r="BS16" s="103"/>
-      <c r="BT16" s="103"/>
-      <c r="BU16" s="103"/>
-      <c r="BV16" s="103"/>
-      <c r="BW16" s="103"/>
-      <c r="BX16" s="103"/>
-      <c r="BY16" s="103"/>
-      <c r="BZ16" s="106"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="71"/>
+      <c r="AI16" s="71"/>
+      <c r="AJ16" s="71"/>
+      <c r="AK16" s="71"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="71"/>
+      <c r="AN16" s="71"/>
+      <c r="AO16" s="82"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="71"/>
+      <c r="AR16" s="71"/>
+      <c r="AS16" s="71"/>
+      <c r="AT16" s="71"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="70"/>
+      <c r="AW16" s="71"/>
+      <c r="AX16" s="71"/>
+      <c r="AY16" s="71"/>
+      <c r="AZ16" s="71"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="95"/>
+      <c r="BC16" s="71"/>
+      <c r="BD16" s="71"/>
+      <c r="BE16" s="71"/>
+      <c r="BF16" s="71"/>
+      <c r="BG16" s="72"/>
+      <c r="BH16" s="70"/>
+      <c r="BI16" s="71"/>
+      <c r="BJ16" s="71"/>
+      <c r="BK16" s="71"/>
+      <c r="BL16" s="72"/>
+      <c r="BM16" s="81"/>
+      <c r="BN16" s="71"/>
+      <c r="BO16" s="71"/>
+      <c r="BP16" s="71"/>
+      <c r="BQ16" s="71"/>
+      <c r="BR16" s="71"/>
+      <c r="BS16" s="71"/>
+      <c r="BT16" s="71"/>
+      <c r="BU16" s="71"/>
+      <c r="BV16" s="71"/>
+      <c r="BW16" s="71"/>
+      <c r="BX16" s="71"/>
+      <c r="BY16" s="71"/>
+      <c r="BZ16" s="82"/>
     </row>
     <row r="17" spans="2:78" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="102"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="103"/>
-      <c r="AH17" s="103"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="103"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="103"/>
-      <c r="AO17" s="106"/>
-      <c r="AP17" s="102" t="s">
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="71"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="82"/>
+      <c r="AP17" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="AQ17" s="103"/>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="103"/>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="104"/>
-      <c r="AV17" s="102"/>
-      <c r="AW17" s="103"/>
-      <c r="AX17" s="103"/>
-      <c r="AY17" s="103"/>
-      <c r="AZ17" s="103"/>
-      <c r="BA17" s="104"/>
-      <c r="BB17" s="107"/>
-      <c r="BC17" s="103"/>
-      <c r="BD17" s="103"/>
-      <c r="BE17" s="103"/>
-      <c r="BF17" s="103"/>
-      <c r="BG17" s="104"/>
-      <c r="BH17" s="102"/>
-      <c r="BI17" s="103"/>
-      <c r="BJ17" s="103"/>
-      <c r="BK17" s="103"/>
-      <c r="BL17" s="104"/>
-      <c r="BM17" s="105"/>
-      <c r="BN17" s="103"/>
-      <c r="BO17" s="103"/>
-      <c r="BP17" s="103"/>
-      <c r="BQ17" s="103"/>
-      <c r="BR17" s="103"/>
-      <c r="BS17" s="103"/>
-      <c r="BT17" s="103"/>
-      <c r="BU17" s="103"/>
-      <c r="BV17" s="103"/>
-      <c r="BW17" s="103"/>
-      <c r="BX17" s="103"/>
-      <c r="BY17" s="103"/>
-      <c r="BZ17" s="106"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="71"/>
+      <c r="AT17" s="71"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="70"/>
+      <c r="AW17" s="71"/>
+      <c r="AX17" s="71"/>
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="71"/>
+      <c r="BA17" s="72"/>
+      <c r="BB17" s="95"/>
+      <c r="BC17" s="71"/>
+      <c r="BD17" s="71"/>
+      <c r="BE17" s="71"/>
+      <c r="BF17" s="71"/>
+      <c r="BG17" s="72"/>
+      <c r="BH17" s="70"/>
+      <c r="BI17" s="71"/>
+      <c r="BJ17" s="71"/>
+      <c r="BK17" s="71"/>
+      <c r="BL17" s="72"/>
+      <c r="BM17" s="81"/>
+      <c r="BN17" s="71"/>
+      <c r="BO17" s="71"/>
+      <c r="BP17" s="71"/>
+      <c r="BQ17" s="71"/>
+      <c r="BR17" s="71"/>
+      <c r="BS17" s="71"/>
+      <c r="BT17" s="71"/>
+      <c r="BU17" s="71"/>
+      <c r="BV17" s="71"/>
+      <c r="BW17" s="71"/>
+      <c r="BX17" s="71"/>
+      <c r="BY17" s="71"/>
+      <c r="BZ17" s="82"/>
     </row>
     <row r="18" spans="2:78" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="59">
+      <c r="B18" s="66">
         <v>1</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="110" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="111"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="111"/>
-      <c r="Z18" s="111"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="111"/>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="111"/>
-      <c r="AE18" s="111"/>
-      <c r="AF18" s="111"/>
-      <c r="AG18" s="111"/>
-      <c r="AH18" s="111"/>
-      <c r="AI18" s="111"/>
-      <c r="AJ18" s="111"/>
-      <c r="AK18" s="111"/>
-      <c r="AL18" s="111"/>
-      <c r="AM18" s="111"/>
-      <c r="AN18" s="111"/>
-      <c r="AO18" s="112"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="88"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="88"/>
-      <c r="AT18" s="88"/>
-      <c r="AU18" s="89"/>
-      <c r="AV18" s="59" t="s">
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="86"/>
+      <c r="AB18" s="86"/>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="86"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="86"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="86"/>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
+      <c r="AS18" s="84"/>
+      <c r="AT18" s="84"/>
+      <c r="AU18" s="88"/>
+      <c r="AV18" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AW18" s="60"/>
-      <c r="AX18" s="60"/>
-      <c r="AY18" s="60"/>
-      <c r="AZ18" s="60"/>
-      <c r="BA18" s="61"/>
-      <c r="BB18" s="62" t="s">
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="62"/>
+      <c r="BB18" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="BC18" s="60"/>
-      <c r="BD18" s="60"/>
-      <c r="BE18" s="60"/>
-      <c r="BF18" s="60"/>
-      <c r="BG18" s="61"/>
-      <c r="BH18" s="59" t="s">
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="62"/>
+      <c r="BH18" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="BI18" s="60"/>
-      <c r="BJ18" s="60"/>
-      <c r="BK18" s="60"/>
-      <c r="BL18" s="61"/>
-      <c r="BM18" s="87"/>
-      <c r="BN18" s="88"/>
-      <c r="BO18" s="88"/>
-      <c r="BP18" s="88"/>
-      <c r="BQ18" s="88"/>
-      <c r="BR18" s="88"/>
-      <c r="BS18" s="88"/>
-      <c r="BT18" s="88"/>
-      <c r="BU18" s="88"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="62"/>
+      <c r="BM18" s="83"/>
+      <c r="BN18" s="84"/>
+      <c r="BO18" s="84"/>
+      <c r="BP18" s="84"/>
+      <c r="BQ18" s="84"/>
+      <c r="BR18" s="84"/>
+      <c r="BS18" s="84"/>
+      <c r="BT18" s="84"/>
+      <c r="BU18" s="84"/>
       <c r="BV18" s="24"/>
       <c r="BW18" s="24"/>
       <c r="BX18" s="24"/>
@@ -4573,541 +4650,987 @@
       <c r="BZ18" s="24"/>
     </row>
     <row r="19" spans="2:78" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="59">
+      <c r="B19" s="66">
         <v>2</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="110" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="111"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="111"/>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="111"/>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="111"/>
-      <c r="AF19" s="111"/>
-      <c r="AG19" s="111"/>
-      <c r="AH19" s="111"/>
-      <c r="AI19" s="111"/>
-      <c r="AJ19" s="111"/>
-      <c r="AK19" s="111"/>
-      <c r="AL19" s="111"/>
-      <c r="AM19" s="111"/>
-      <c r="AN19" s="111"/>
-      <c r="AO19" s="112"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="88"/>
-      <c r="AR19" s="88"/>
-      <c r="AS19" s="88"/>
-      <c r="AT19" s="88"/>
-      <c r="AU19" s="89"/>
-      <c r="AV19" s="59" t="s">
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="86"/>
+      <c r="U19" s="86"/>
+      <c r="V19" s="86"/>
+      <c r="W19" s="86"/>
+      <c r="X19" s="86"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="86"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="86"/>
+      <c r="AJ19" s="86"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="86"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="86"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="83"/>
+      <c r="AQ19" s="84"/>
+      <c r="AR19" s="84"/>
+      <c r="AS19" s="84"/>
+      <c r="AT19" s="84"/>
+      <c r="AU19" s="88"/>
+      <c r="AV19" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AW19" s="60"/>
-      <c r="AX19" s="60"/>
-      <c r="AY19" s="60"/>
-      <c r="AZ19" s="60"/>
-      <c r="BA19" s="61"/>
-      <c r="BB19" s="62" t="s">
+      <c r="AW19" s="61"/>
+      <c r="AX19" s="61"/>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="62"/>
+      <c r="BB19" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="BC19" s="60"/>
-      <c r="BD19" s="60"/>
-      <c r="BE19" s="60"/>
-      <c r="BF19" s="60"/>
-      <c r="BG19" s="61"/>
-      <c r="BH19" s="59" t="s">
+      <c r="BC19" s="61"/>
+      <c r="BD19" s="61"/>
+      <c r="BE19" s="61"/>
+      <c r="BF19" s="61"/>
+      <c r="BG19" s="62"/>
+      <c r="BH19" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="BI19" s="60"/>
-      <c r="BJ19" s="60"/>
-      <c r="BK19" s="60"/>
-      <c r="BL19" s="61"/>
-      <c r="BM19" s="76"/>
-      <c r="BN19" s="77"/>
-      <c r="BO19" s="77"/>
-      <c r="BP19" s="77"/>
-      <c r="BQ19" s="77"/>
-      <c r="BR19" s="77"/>
-      <c r="BS19" s="77"/>
-      <c r="BT19" s="77"/>
-      <c r="BU19" s="77"/>
-      <c r="BV19" s="77"/>
-      <c r="BW19" s="77"/>
-      <c r="BX19" s="77"/>
-      <c r="BY19" s="77"/>
-      <c r="BZ19" s="77"/>
+      <c r="BI19" s="61"/>
+      <c r="BJ19" s="61"/>
+      <c r="BK19" s="61"/>
+      <c r="BL19" s="62"/>
+      <c r="BM19" s="128"/>
+      <c r="BN19" s="129"/>
+      <c r="BO19" s="129"/>
+      <c r="BP19" s="129"/>
+      <c r="BQ19" s="129"/>
+      <c r="BR19" s="129"/>
+      <c r="BS19" s="129"/>
+      <c r="BT19" s="129"/>
+      <c r="BU19" s="129"/>
+      <c r="BV19" s="129"/>
+      <c r="BW19" s="129"/>
+      <c r="BX19" s="129"/>
+      <c r="BY19" s="129"/>
+      <c r="BZ19" s="129"/>
     </row>
     <row r="20" spans="2:78" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="59">
+      <c r="B20" s="66">
         <v>3</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="113" t="s">
+      <c r="C20" s="62"/>
+      <c r="D20" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="114"/>
-      <c r="Z20" s="114"/>
-      <c r="AA20" s="114"/>
-      <c r="AB20" s="114"/>
-      <c r="AC20" s="114"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="114"/>
-      <c r="AF20" s="114"/>
-      <c r="AG20" s="114"/>
-      <c r="AH20" s="114"/>
-      <c r="AI20" s="114"/>
-      <c r="AJ20" s="114"/>
-      <c r="AK20" s="114"/>
-      <c r="AL20" s="114"/>
-      <c r="AM20" s="114"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="115"/>
-      <c r="AP20" s="116"/>
-      <c r="AQ20" s="117"/>
-      <c r="AR20" s="117"/>
-      <c r="AS20" s="117"/>
-      <c r="AT20" s="117"/>
-      <c r="AU20" s="118"/>
-      <c r="AV20" s="59" t="s">
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="90"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="90"/>
+      <c r="AJ20" s="90"/>
+      <c r="AK20" s="90"/>
+      <c r="AL20" s="90"/>
+      <c r="AM20" s="90"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="91"/>
+      <c r="AP20" s="92"/>
+      <c r="AQ20" s="93"/>
+      <c r="AR20" s="93"/>
+      <c r="AS20" s="93"/>
+      <c r="AT20" s="93"/>
+      <c r="AU20" s="94"/>
+      <c r="AV20" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AW20" s="60"/>
-      <c r="AX20" s="60"/>
-      <c r="AY20" s="60"/>
-      <c r="AZ20" s="60"/>
-      <c r="BA20" s="61"/>
-      <c r="BB20" s="62" t="s">
+      <c r="AW20" s="61"/>
+      <c r="AX20" s="61"/>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="61"/>
+      <c r="BA20" s="62"/>
+      <c r="BB20" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="BC20" s="60"/>
-      <c r="BD20" s="60"/>
-      <c r="BE20" s="60"/>
-      <c r="BF20" s="60"/>
-      <c r="BG20" s="61"/>
-      <c r="BH20" s="78" t="s">
+      <c r="BC20" s="61"/>
+      <c r="BD20" s="61"/>
+      <c r="BE20" s="61"/>
+      <c r="BF20" s="61"/>
+      <c r="BG20" s="62"/>
+      <c r="BH20" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="BI20" s="79"/>
-      <c r="BJ20" s="79"/>
-      <c r="BK20" s="79"/>
-      <c r="BL20" s="80"/>
-      <c r="BM20" s="108"/>
-      <c r="BN20" s="109"/>
-      <c r="BO20" s="109"/>
-      <c r="BP20" s="109"/>
-      <c r="BQ20" s="109"/>
-      <c r="BR20" s="109"/>
-      <c r="BS20" s="109"/>
-      <c r="BT20" s="109"/>
-      <c r="BU20" s="109"/>
-      <c r="BV20" s="109"/>
-      <c r="BW20" s="109"/>
-      <c r="BX20" s="109"/>
-      <c r="BY20" s="109"/>
-      <c r="BZ20" s="109"/>
+      <c r="BI20" s="131"/>
+      <c r="BJ20" s="131"/>
+      <c r="BK20" s="131"/>
+      <c r="BL20" s="132"/>
+      <c r="BM20" s="79"/>
+      <c r="BN20" s="80"/>
+      <c r="BO20" s="80"/>
+      <c r="BP20" s="80"/>
+      <c r="BQ20" s="80"/>
+      <c r="BR20" s="80"/>
+      <c r="BS20" s="80"/>
+      <c r="BT20" s="80"/>
+      <c r="BU20" s="80"/>
+      <c r="BV20" s="80"/>
+      <c r="BW20" s="80"/>
+      <c r="BX20" s="80"/>
+      <c r="BY20" s="80"/>
+      <c r="BZ20" s="80"/>
     </row>
     <row r="21" spans="2:78" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="59">
+      <c r="B21" s="66">
         <v>4</v>
       </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="121" t="s">
+      <c r="C21" s="62"/>
+      <c r="D21" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="122"/>
-      <c r="V21" s="122"/>
-      <c r="W21" s="122"/>
-      <c r="X21" s="122"/>
-      <c r="Y21" s="122"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="122"/>
-      <c r="AB21" s="122"/>
-      <c r="AC21" s="122"/>
-      <c r="AD21" s="122"/>
-      <c r="AE21" s="122"/>
-      <c r="AF21" s="122"/>
-      <c r="AG21" s="122"/>
-      <c r="AH21" s="122"/>
-      <c r="AI21" s="122"/>
-      <c r="AJ21" s="122"/>
-      <c r="AK21" s="122"/>
-      <c r="AL21" s="122"/>
-      <c r="AM21" s="122"/>
-      <c r="AN21" s="122"/>
-      <c r="AO21" s="123"/>
-      <c r="AP21" s="125"/>
-      <c r="AQ21" s="126"/>
-      <c r="AR21" s="126"/>
-      <c r="AS21" s="126"/>
-      <c r="AT21" s="126"/>
-      <c r="AU21" s="127"/>
-      <c r="AV21" s="59" t="s">
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="68"/>
+      <c r="AO21" s="69"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="77"/>
+      <c r="AT21" s="77"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AW21" s="60"/>
-      <c r="AX21" s="60"/>
-      <c r="AY21" s="60"/>
-      <c r="AZ21" s="60"/>
-      <c r="BA21" s="61"/>
-      <c r="BB21" s="62" t="s">
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="62"/>
+      <c r="BB21" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="BC21" s="60"/>
-      <c r="BD21" s="60"/>
-      <c r="BE21" s="60"/>
-      <c r="BF21" s="60"/>
-      <c r="BG21" s="61"/>
-      <c r="BH21" s="68" t="s">
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="61"/>
+      <c r="BG21" s="62"/>
+      <c r="BH21" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="BI21" s="69"/>
-      <c r="BJ21" s="69"/>
-      <c r="BK21" s="69"/>
-      <c r="BL21" s="70"/>
-      <c r="BM21" s="66"/>
-      <c r="BN21" s="67"/>
-      <c r="BO21" s="67"/>
-      <c r="BP21" s="67"/>
-      <c r="BQ21" s="67"/>
-      <c r="BR21" s="67"/>
-      <c r="BS21" s="67"/>
-      <c r="BT21" s="67"/>
-      <c r="BU21" s="67"/>
-      <c r="BV21" s="67"/>
-      <c r="BW21" s="67"/>
-      <c r="BX21" s="67"/>
-      <c r="BY21" s="67"/>
-      <c r="BZ21" s="67"/>
+      <c r="BI21" s="124"/>
+      <c r="BJ21" s="124"/>
+      <c r="BK21" s="124"/>
+      <c r="BL21" s="125"/>
+      <c r="BM21" s="121"/>
+      <c r="BN21" s="122"/>
+      <c r="BO21" s="122"/>
+      <c r="BP21" s="122"/>
+      <c r="BQ21" s="122"/>
+      <c r="BR21" s="122"/>
+      <c r="BS21" s="122"/>
+      <c r="BT21" s="122"/>
+      <c r="BU21" s="122"/>
+      <c r="BV21" s="122"/>
+      <c r="BW21" s="122"/>
+      <c r="BX21" s="122"/>
+      <c r="BY21" s="122"/>
+      <c r="BZ21" s="122"/>
     </row>
     <row r="22" spans="2:78" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="93"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="90" t="s">
+      <c r="B22" s="99"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="91"/>
-      <c r="Z22" s="91"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="91"/>
-      <c r="AC22" s="91"/>
-      <c r="AD22" s="91"/>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="91"/>
-      <c r="AJ22" s="91"/>
-      <c r="AK22" s="91"/>
-      <c r="AL22" s="91"/>
-      <c r="AM22" s="91"/>
-      <c r="AN22" s="91"/>
-      <c r="AO22" s="92"/>
-      <c r="AP22" s="93"/>
-      <c r="AQ22" s="94"/>
-      <c r="AR22" s="94"/>
-      <c r="AS22" s="94"/>
-      <c r="AT22" s="94"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="72"/>
-      <c r="AX22" s="72"/>
-      <c r="AY22" s="72"/>
-      <c r="AZ22" s="72"/>
-      <c r="BA22" s="73"/>
-      <c r="BB22" s="63"/>
-      <c r="BC22" s="64"/>
-      <c r="BD22" s="64"/>
-      <c r="BE22" s="64"/>
-      <c r="BF22" s="64"/>
-      <c r="BG22" s="65"/>
-      <c r="BH22" s="71"/>
-      <c r="BI22" s="72"/>
-      <c r="BJ22" s="72"/>
-      <c r="BK22" s="72"/>
-      <c r="BL22" s="73"/>
-      <c r="BM22" s="74"/>
-      <c r="BN22" s="75"/>
-      <c r="BO22" s="75"/>
-      <c r="BP22" s="75"/>
-      <c r="BQ22" s="75"/>
-      <c r="BR22" s="75"/>
-      <c r="BS22" s="75"/>
-      <c r="BT22" s="75"/>
-      <c r="BU22" s="75"/>
-      <c r="BV22" s="75"/>
-      <c r="BW22" s="75"/>
-      <c r="BX22" s="75"/>
-      <c r="BY22" s="75"/>
-      <c r="BZ22" s="75"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
+      <c r="X22" s="97"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="97"/>
+      <c r="AA22" s="97"/>
+      <c r="AB22" s="97"/>
+      <c r="AC22" s="97"/>
+      <c r="AD22" s="97"/>
+      <c r="AE22" s="97"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="97"/>
+      <c r="AH22" s="97"/>
+      <c r="AI22" s="97"/>
+      <c r="AJ22" s="97"/>
+      <c r="AK22" s="97"/>
+      <c r="AL22" s="97"/>
+      <c r="AM22" s="97"/>
+      <c r="AN22" s="97"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="100"/>
+      <c r="AR22" s="100"/>
+      <c r="AS22" s="100"/>
+      <c r="AT22" s="100"/>
+      <c r="AU22" s="101"/>
+      <c r="AV22" s="102"/>
+      <c r="AW22" s="103"/>
+      <c r="AX22" s="103"/>
+      <c r="AY22" s="103"/>
+      <c r="AZ22" s="103"/>
+      <c r="BA22" s="104"/>
+      <c r="BB22" s="118"/>
+      <c r="BC22" s="119"/>
+      <c r="BD22" s="119"/>
+      <c r="BE22" s="119"/>
+      <c r="BF22" s="119"/>
+      <c r="BG22" s="120"/>
+      <c r="BH22" s="102"/>
+      <c r="BI22" s="103"/>
+      <c r="BJ22" s="103"/>
+      <c r="BK22" s="103"/>
+      <c r="BL22" s="104"/>
+      <c r="BM22" s="126"/>
+      <c r="BN22" s="127"/>
+      <c r="BO22" s="127"/>
+      <c r="BP22" s="127"/>
+      <c r="BQ22" s="127"/>
+      <c r="BR22" s="127"/>
+      <c r="BS22" s="127"/>
+      <c r="BT22" s="127"/>
+      <c r="BU22" s="127"/>
+      <c r="BV22" s="127"/>
+      <c r="BW22" s="127"/>
+      <c r="BX22" s="127"/>
+      <c r="BY22" s="127"/>
+      <c r="BZ22" s="127"/>
     </row>
     <row r="23" spans="2:78" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="59">
+      <c r="B23" s="66">
         <v>5</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="97" t="s">
+      <c r="C23" s="62"/>
+      <c r="D23" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="98"/>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="98"/>
-      <c r="AL23" s="98"/>
-      <c r="AM23" s="98"/>
-      <c r="AN23" s="98"/>
-      <c r="AO23" s="99"/>
-      <c r="AP23" s="100"/>
-      <c r="AQ23" s="60"/>
-      <c r="AR23" s="60"/>
-      <c r="AS23" s="60"/>
-      <c r="AT23" s="60"/>
-      <c r="AU23" s="61"/>
-      <c r="AV23" s="59" t="s">
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="107"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
+      <c r="Z23" s="107"/>
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="107"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="107"/>
+      <c r="AH23" s="107"/>
+      <c r="AI23" s="107"/>
+      <c r="AJ23" s="107"/>
+      <c r="AK23" s="107"/>
+      <c r="AL23" s="107"/>
+      <c r="AM23" s="107"/>
+      <c r="AN23" s="107"/>
+      <c r="AO23" s="108"/>
+      <c r="AP23" s="109"/>
+      <c r="AQ23" s="61"/>
+      <c r="AR23" s="61"/>
+      <c r="AS23" s="61"/>
+      <c r="AT23" s="61"/>
+      <c r="AU23" s="62"/>
+      <c r="AV23" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AW23" s="60"/>
-      <c r="AX23" s="60"/>
-      <c r="AY23" s="60"/>
-      <c r="AZ23" s="60"/>
-      <c r="BA23" s="61"/>
-      <c r="BB23" s="62" t="s">
+      <c r="AW23" s="61"/>
+      <c r="AX23" s="61"/>
+      <c r="AY23" s="61"/>
+      <c r="AZ23" s="61"/>
+      <c r="BA23" s="62"/>
+      <c r="BB23" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="BC23" s="60"/>
-      <c r="BD23" s="60"/>
-      <c r="BE23" s="60"/>
-      <c r="BF23" s="60"/>
-      <c r="BG23" s="61"/>
-      <c r="BH23" s="59" t="s">
+      <c r="BC23" s="61"/>
+      <c r="BD23" s="61"/>
+      <c r="BE23" s="61"/>
+      <c r="BF23" s="61"/>
+      <c r="BG23" s="62"/>
+      <c r="BH23" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="BI23" s="60"/>
-      <c r="BJ23" s="60"/>
-      <c r="BK23" s="60"/>
-      <c r="BL23" s="61"/>
-      <c r="BM23" s="96"/>
-      <c r="BN23" s="60"/>
-      <c r="BO23" s="60"/>
-      <c r="BP23" s="60"/>
-      <c r="BQ23" s="60"/>
-      <c r="BR23" s="60"/>
-      <c r="BS23" s="60"/>
-      <c r="BT23" s="60"/>
-      <c r="BU23" s="60"/>
-      <c r="BV23" s="60"/>
-      <c r="BW23" s="60"/>
-      <c r="BX23" s="60"/>
-      <c r="BY23" s="60"/>
-      <c r="BZ23" s="38"/>
+      <c r="BI23" s="61"/>
+      <c r="BJ23" s="61"/>
+      <c r="BK23" s="61"/>
+      <c r="BL23" s="62"/>
+      <c r="BM23" s="105"/>
+      <c r="BN23" s="61"/>
+      <c r="BO23" s="61"/>
+      <c r="BP23" s="61"/>
+      <c r="BQ23" s="61"/>
+      <c r="BR23" s="61"/>
+      <c r="BS23" s="61"/>
+      <c r="BT23" s="61"/>
+      <c r="BU23" s="61"/>
+      <c r="BV23" s="61"/>
+      <c r="BW23" s="61"/>
+      <c r="BX23" s="61"/>
+      <c r="BY23" s="61"/>
+      <c r="BZ23" s="41"/>
     </row>
     <row r="24" spans="2:78" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="59">
+      <c r="B24" s="66">
         <v>6</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="81" t="s">
+      <c r="C24" s="62"/>
+      <c r="D24" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="82"/>
-      <c r="Z24" s="82"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="82"/>
-      <c r="AF24" s="82"/>
-      <c r="AG24" s="82"/>
-      <c r="AH24" s="82"/>
-      <c r="AI24" s="82"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="82"/>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="83"/>
-      <c r="AP24" s="84"/>
-      <c r="AQ24" s="85"/>
-      <c r="AR24" s="85"/>
-      <c r="AS24" s="85"/>
-      <c r="AT24" s="85"/>
-      <c r="AU24" s="86"/>
-      <c r="AV24" s="59" t="s">
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+      <c r="W24" s="111"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="111"/>
+      <c r="Z24" s="111"/>
+      <c r="AA24" s="111"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="111"/>
+      <c r="AD24" s="111"/>
+      <c r="AE24" s="111"/>
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="111"/>
+      <c r="AH24" s="111"/>
+      <c r="AI24" s="111"/>
+      <c r="AJ24" s="111"/>
+      <c r="AK24" s="111"/>
+      <c r="AL24" s="111"/>
+      <c r="AM24" s="111"/>
+      <c r="AN24" s="111"/>
+      <c r="AO24" s="112"/>
+      <c r="AP24" s="113"/>
+      <c r="AQ24" s="114"/>
+      <c r="AR24" s="114"/>
+      <c r="AS24" s="114"/>
+      <c r="AT24" s="114"/>
+      <c r="AU24" s="115"/>
+      <c r="AV24" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AW24" s="60"/>
-      <c r="AX24" s="60"/>
-      <c r="AY24" s="60"/>
-      <c r="AZ24" s="60"/>
-      <c r="BA24" s="61"/>
-      <c r="BB24" s="62" t="s">
+      <c r="AW24" s="61"/>
+      <c r="AX24" s="61"/>
+      <c r="AY24" s="61"/>
+      <c r="AZ24" s="61"/>
+      <c r="BA24" s="62"/>
+      <c r="BB24" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="BC24" s="60"/>
-      <c r="BD24" s="60"/>
-      <c r="BE24" s="60"/>
-      <c r="BF24" s="60"/>
-      <c r="BG24" s="61"/>
-      <c r="BH24" s="87" t="s">
+      <c r="BC24" s="61"/>
+      <c r="BD24" s="61"/>
+      <c r="BE24" s="61"/>
+      <c r="BF24" s="61"/>
+      <c r="BG24" s="62"/>
+      <c r="BH24" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="BI24" s="88"/>
-      <c r="BJ24" s="88"/>
-      <c r="BK24" s="88"/>
-      <c r="BL24" s="89"/>
-      <c r="BM24" s="57"/>
-      <c r="BN24" s="58"/>
-      <c r="BO24" s="58"/>
-      <c r="BP24" s="58"/>
-      <c r="BQ24" s="58"/>
-      <c r="BR24" s="58"/>
-      <c r="BS24" s="58"/>
-      <c r="BT24" s="58"/>
-      <c r="BU24" s="58"/>
-      <c r="BV24" s="58"/>
-      <c r="BW24" s="58"/>
-      <c r="BX24" s="58"/>
-      <c r="BY24" s="58"/>
-      <c r="BZ24" s="58"/>
-    </row>
-    <row r="36" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W36" s="36"/>
+      <c r="BI24" s="84"/>
+      <c r="BJ24" s="84"/>
+      <c r="BK24" s="84"/>
+      <c r="BL24" s="88"/>
+      <c r="BM24" s="116"/>
+      <c r="BN24" s="117"/>
+      <c r="BO24" s="117"/>
+      <c r="BP24" s="117"/>
+      <c r="BQ24" s="117"/>
+      <c r="BR24" s="117"/>
+      <c r="BS24" s="117"/>
+      <c r="BT24" s="117"/>
+      <c r="BU24" s="117"/>
+      <c r="BV24" s="117"/>
+      <c r="BW24" s="117"/>
+      <c r="BX24" s="117"/>
+      <c r="BY24" s="117"/>
+      <c r="BZ24" s="117"/>
+    </row>
+    <row r="25" spans="2:78" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="150"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="152" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="153"/>
+      <c r="P25" s="153"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="153"/>
+      <c r="V25" s="153"/>
+      <c r="W25" s="153"/>
+      <c r="X25" s="153"/>
+      <c r="Y25" s="153"/>
+      <c r="Z25" s="153"/>
+      <c r="AA25" s="153"/>
+      <c r="AB25" s="153"/>
+      <c r="AC25" s="153"/>
+      <c r="AD25" s="153"/>
+      <c r="AE25" s="153"/>
+      <c r="AF25" s="153"/>
+      <c r="AG25" s="153"/>
+      <c r="AH25" s="153"/>
+      <c r="AI25" s="153"/>
+      <c r="AJ25" s="153"/>
+      <c r="AK25" s="153"/>
+      <c r="AL25" s="153"/>
+      <c r="AM25" s="153"/>
+      <c r="AN25" s="153"/>
+      <c r="AO25" s="153"/>
+      <c r="AP25" s="154"/>
+      <c r="AQ25" s="153"/>
+      <c r="AR25" s="153"/>
+      <c r="AS25" s="153"/>
+      <c r="AT25" s="153"/>
+      <c r="AU25" s="155"/>
+      <c r="AV25" s="150"/>
+      <c r="AW25" s="156"/>
+      <c r="AX25" s="156"/>
+      <c r="AY25" s="156"/>
+      <c r="AZ25" s="156"/>
+      <c r="BA25" s="151"/>
+      <c r="BB25" s="157"/>
+      <c r="BC25" s="153"/>
+      <c r="BD25" s="153"/>
+      <c r="BE25" s="153"/>
+      <c r="BF25" s="153"/>
+      <c r="BG25" s="155"/>
+      <c r="BH25" s="158"/>
+      <c r="BI25" s="153"/>
+      <c r="BJ25" s="153"/>
+      <c r="BK25" s="153"/>
+      <c r="BL25" s="153"/>
+      <c r="BM25" s="159"/>
+      <c r="BN25" s="160"/>
+      <c r="BO25" s="160"/>
+      <c r="BP25" s="160"/>
+      <c r="BQ25" s="160"/>
+      <c r="BR25" s="160"/>
+      <c r="BS25" s="160"/>
+      <c r="BT25" s="160"/>
+      <c r="BU25" s="160"/>
+      <c r="BV25" s="160"/>
+      <c r="BW25" s="160"/>
+      <c r="BX25" s="160"/>
+      <c r="BY25" s="160"/>
+      <c r="BZ25" s="160"/>
+    </row>
+    <row r="26" spans="2:78" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="161">
+        <v>1</v>
+      </c>
+      <c r="C26" s="162"/>
+      <c r="D26" s="163" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="153"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="153"/>
+      <c r="V26" s="153"/>
+      <c r="W26" s="153"/>
+      <c r="X26" s="153"/>
+      <c r="Y26" s="153"/>
+      <c r="Z26" s="153"/>
+      <c r="AA26" s="153"/>
+      <c r="AB26" s="153"/>
+      <c r="AC26" s="153"/>
+      <c r="AD26" s="153"/>
+      <c r="AE26" s="153"/>
+      <c r="AF26" s="153"/>
+      <c r="AG26" s="153"/>
+      <c r="AH26" s="153"/>
+      <c r="AI26" s="153"/>
+      <c r="AJ26" s="153"/>
+      <c r="AK26" s="153"/>
+      <c r="AL26" s="153"/>
+      <c r="AM26" s="153"/>
+      <c r="AN26" s="153"/>
+      <c r="AO26" s="153"/>
+      <c r="AP26" s="164"/>
+      <c r="AQ26" s="153"/>
+      <c r="AR26" s="153"/>
+      <c r="AS26" s="153"/>
+      <c r="AT26" s="153"/>
+      <c r="AU26" s="155"/>
+      <c r="AV26" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW26" s="165"/>
+      <c r="AX26" s="165"/>
+      <c r="AY26" s="165"/>
+      <c r="AZ26" s="165"/>
+      <c r="BA26" s="162"/>
+      <c r="BB26" s="166">
+        <f t="shared" ref="BB26:BB28" ca="1" si="0">TODAY()</f>
+        <v>45708</v>
+      </c>
+      <c r="BC26" s="153"/>
+      <c r="BD26" s="153"/>
+      <c r="BE26" s="153"/>
+      <c r="BF26" s="153"/>
+      <c r="BG26" s="155"/>
+      <c r="BH26" s="161" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI26" s="153"/>
+      <c r="BJ26" s="153"/>
+      <c r="BK26" s="153"/>
+      <c r="BL26" s="153"/>
+      <c r="BM26" s="167"/>
+      <c r="BN26" s="160"/>
+      <c r="BO26" s="160"/>
+      <c r="BP26" s="160"/>
+      <c r="BQ26" s="160"/>
+      <c r="BR26" s="160"/>
+      <c r="BS26" s="160"/>
+      <c r="BT26" s="160"/>
+      <c r="BU26" s="160"/>
+      <c r="BV26" s="160"/>
+      <c r="BW26" s="160"/>
+      <c r="BX26" s="160"/>
+      <c r="BY26" s="160"/>
+      <c r="BZ26" s="160"/>
+    </row>
+    <row r="27" spans="2:78" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="161">
+        <v>2</v>
+      </c>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="153"/>
+      <c r="M27" s="153"/>
+      <c r="N27" s="153"/>
+      <c r="O27" s="153"/>
+      <c r="P27" s="153"/>
+      <c r="Q27" s="153"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="153"/>
+      <c r="V27" s="153"/>
+      <c r="W27" s="153"/>
+      <c r="X27" s="153"/>
+      <c r="Y27" s="153"/>
+      <c r="Z27" s="153"/>
+      <c r="AA27" s="153"/>
+      <c r="AB27" s="153"/>
+      <c r="AC27" s="153"/>
+      <c r="AD27" s="153"/>
+      <c r="AE27" s="153"/>
+      <c r="AF27" s="153"/>
+      <c r="AG27" s="153"/>
+      <c r="AH27" s="153"/>
+      <c r="AI27" s="153"/>
+      <c r="AJ27" s="153"/>
+      <c r="AK27" s="153"/>
+      <c r="AL27" s="153"/>
+      <c r="AM27" s="153"/>
+      <c r="AN27" s="153"/>
+      <c r="AO27" s="155"/>
+      <c r="AP27" s="164"/>
+      <c r="AQ27" s="153"/>
+      <c r="AR27" s="153"/>
+      <c r="AS27" s="153"/>
+      <c r="AT27" s="153"/>
+      <c r="AU27" s="155"/>
+      <c r="AV27" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW27" s="165"/>
+      <c r="AX27" s="165"/>
+      <c r="AY27" s="165"/>
+      <c r="AZ27" s="165"/>
+      <c r="BA27" s="162"/>
+      <c r="BB27" s="166">
+        <f t="shared" ca="1" si="0"/>
+        <v>45708</v>
+      </c>
+      <c r="BC27" s="153"/>
+      <c r="BD27" s="153"/>
+      <c r="BE27" s="153"/>
+      <c r="BF27" s="153"/>
+      <c r="BG27" s="155"/>
+      <c r="BH27" s="161" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI27" s="153"/>
+      <c r="BJ27" s="153"/>
+      <c r="BK27" s="153"/>
+      <c r="BL27" s="153"/>
+      <c r="BM27" s="167"/>
+      <c r="BN27" s="160"/>
+      <c r="BO27" s="160"/>
+      <c r="BP27" s="160"/>
+      <c r="BQ27" s="160"/>
+      <c r="BR27" s="160"/>
+      <c r="BS27" s="160"/>
+      <c r="BT27" s="160"/>
+      <c r="BU27" s="160"/>
+      <c r="BV27" s="160"/>
+      <c r="BW27" s="160"/>
+      <c r="BX27" s="160"/>
+      <c r="BY27" s="160"/>
+      <c r="BZ27" s="160"/>
+    </row>
+    <row r="28" spans="2:78" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="161">
+        <v>3</v>
+      </c>
+      <c r="C28" s="162"/>
+      <c r="D28" s="163" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="153"/>
+      <c r="P28" s="153"/>
+      <c r="Q28" s="153"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="153"/>
+      <c r="V28" s="153"/>
+      <c r="W28" s="153"/>
+      <c r="X28" s="153"/>
+      <c r="Y28" s="153"/>
+      <c r="Z28" s="153"/>
+      <c r="AA28" s="153"/>
+      <c r="AB28" s="153"/>
+      <c r="AC28" s="153"/>
+      <c r="AD28" s="153"/>
+      <c r="AE28" s="153"/>
+      <c r="AF28" s="153"/>
+      <c r="AG28" s="153"/>
+      <c r="AH28" s="153"/>
+      <c r="AI28" s="153"/>
+      <c r="AJ28" s="153"/>
+      <c r="AK28" s="153"/>
+      <c r="AL28" s="153"/>
+      <c r="AM28" s="153"/>
+      <c r="AN28" s="153"/>
+      <c r="AO28" s="153"/>
+      <c r="AP28" s="164"/>
+      <c r="AQ28" s="153"/>
+      <c r="AR28" s="153"/>
+      <c r="AS28" s="153"/>
+      <c r="AT28" s="153"/>
+      <c r="AU28" s="155"/>
+      <c r="AV28" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW28" s="165"/>
+      <c r="AX28" s="165"/>
+      <c r="AY28" s="165"/>
+      <c r="AZ28" s="165"/>
+      <c r="BA28" s="162"/>
+      <c r="BB28" s="166">
+        <f t="shared" ca="1" si="0"/>
+        <v>45708</v>
+      </c>
+      <c r="BC28" s="153"/>
+      <c r="BD28" s="153"/>
+      <c r="BE28" s="153"/>
+      <c r="BF28" s="153"/>
+      <c r="BG28" s="155"/>
+      <c r="BH28" s="161" t="s">
+        <v>14</v>
+      </c>
+      <c r="BI28" s="153"/>
+      <c r="BJ28" s="153"/>
+      <c r="BK28" s="153"/>
+      <c r="BL28" s="153"/>
+      <c r="BM28" s="167"/>
+      <c r="BN28" s="160"/>
+      <c r="BO28" s="160"/>
+      <c r="BP28" s="160"/>
+      <c r="BQ28" s="160"/>
+      <c r="BR28" s="160"/>
+      <c r="BS28" s="160"/>
+      <c r="BT28" s="160"/>
+      <c r="BU28" s="160"/>
+      <c r="BV28" s="160"/>
+      <c r="BW28" s="160"/>
+      <c r="BX28" s="160"/>
+      <c r="BY28" s="160"/>
+      <c r="BZ28" s="160"/>
+    </row>
+    <row r="40" spans="23:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W40" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="AI4:BI4"/>
-    <mergeCell ref="F5:M5"/>
+  <mergeCells count="121">
+    <mergeCell ref="BH27:BL27"/>
+    <mergeCell ref="BM27:BZ27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:AO28"/>
+    <mergeCell ref="AP28:AU28"/>
+    <mergeCell ref="AV28:BA28"/>
+    <mergeCell ref="BB28:BG28"/>
+    <mergeCell ref="BH28:BL28"/>
+    <mergeCell ref="BM28:BZ28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:AO27"/>
+    <mergeCell ref="AP27:AU27"/>
+    <mergeCell ref="AV27:BA27"/>
+    <mergeCell ref="BB27:BG27"/>
+    <mergeCell ref="BH25:BL25"/>
+    <mergeCell ref="BM25:BZ25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:AO26"/>
+    <mergeCell ref="AP26:AU26"/>
+    <mergeCell ref="AV26:BA26"/>
+    <mergeCell ref="BB26:BG26"/>
+    <mergeCell ref="BH26:BL26"/>
+    <mergeCell ref="BM26:BZ26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:AO25"/>
+    <mergeCell ref="AP25:AU25"/>
+    <mergeCell ref="AV25:BA25"/>
+    <mergeCell ref="BB25:BG25"/>
+    <mergeCell ref="BM24:BZ24"/>
+    <mergeCell ref="AV19:BA19"/>
+    <mergeCell ref="BB19:BG19"/>
+    <mergeCell ref="BH19:BL19"/>
+    <mergeCell ref="BB22:BG22"/>
+    <mergeCell ref="BM21:BZ21"/>
+    <mergeCell ref="BH21:BL21"/>
+    <mergeCell ref="AV21:BA21"/>
+    <mergeCell ref="BH22:BL22"/>
+    <mergeCell ref="BH23:BL23"/>
+    <mergeCell ref="BM22:BZ22"/>
+    <mergeCell ref="AV24:BA24"/>
+    <mergeCell ref="BM19:BZ19"/>
+    <mergeCell ref="AV20:BA20"/>
+    <mergeCell ref="BB20:BG20"/>
+    <mergeCell ref="BH20:BL20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:AO24"/>
+    <mergeCell ref="AP24:AU24"/>
+    <mergeCell ref="BB24:BG24"/>
+    <mergeCell ref="BH24:BL24"/>
+    <mergeCell ref="D22:AO22"/>
+    <mergeCell ref="AP22:AU22"/>
+    <mergeCell ref="AV22:BA22"/>
+    <mergeCell ref="BM23:BZ23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:AO23"/>
+    <mergeCell ref="AP23:AU23"/>
+    <mergeCell ref="AV23:BA23"/>
+    <mergeCell ref="BB23:BG23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="BM15:BZ15"/>
+    <mergeCell ref="AV15:BA15"/>
+    <mergeCell ref="AV17:BA17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:AO16"/>
+    <mergeCell ref="AP16:AU16"/>
+    <mergeCell ref="AV16:BA16"/>
+    <mergeCell ref="BB16:BG16"/>
+    <mergeCell ref="BH16:BL16"/>
+    <mergeCell ref="BM16:BZ16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:AO17"/>
+    <mergeCell ref="AP17:AU17"/>
+    <mergeCell ref="BB17:BG17"/>
+    <mergeCell ref="BM20:BZ20"/>
+    <mergeCell ref="BM17:BZ17"/>
+    <mergeCell ref="BM18:BU18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:AO18"/>
+    <mergeCell ref="AP18:AU18"/>
+    <mergeCell ref="AV18:BA18"/>
+    <mergeCell ref="BB18:BG18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:AO19"/>
+    <mergeCell ref="AP19:AU19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:AO20"/>
+    <mergeCell ref="AP20:AU20"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="BA12:BF12"/>
+    <mergeCell ref="BH18:BL18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:AO21"/>
+    <mergeCell ref="BH17:BL17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:AO15"/>
+    <mergeCell ref="AP15:AU15"/>
+    <mergeCell ref="BB15:BG15"/>
+    <mergeCell ref="BH15:BL15"/>
+    <mergeCell ref="BB21:BG21"/>
+    <mergeCell ref="AP21:AU21"/>
     <mergeCell ref="F6:M6"/>
     <mergeCell ref="N6:BI7"/>
     <mergeCell ref="F7:M7"/>
@@ -5124,82 +5647,15 @@
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="BA12:BF12"/>
-    <mergeCell ref="BH18:BL18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:AO21"/>
-    <mergeCell ref="BH17:BL17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:AO15"/>
-    <mergeCell ref="AP15:AU15"/>
-    <mergeCell ref="BB15:BG15"/>
-    <mergeCell ref="BH15:BL15"/>
-    <mergeCell ref="BB21:BG21"/>
-    <mergeCell ref="AP21:AU21"/>
-    <mergeCell ref="BM20:BZ20"/>
-    <mergeCell ref="BM17:BZ17"/>
-    <mergeCell ref="BM18:BU18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:AO18"/>
-    <mergeCell ref="AP18:AU18"/>
-    <mergeCell ref="AV18:BA18"/>
-    <mergeCell ref="BB18:BG18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:AO19"/>
-    <mergeCell ref="AP19:AU19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:AO20"/>
-    <mergeCell ref="AP20:AU20"/>
-    <mergeCell ref="BM15:BZ15"/>
-    <mergeCell ref="AV15:BA15"/>
-    <mergeCell ref="AV17:BA17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:AO16"/>
-    <mergeCell ref="AP16:AU16"/>
-    <mergeCell ref="AV16:BA16"/>
-    <mergeCell ref="BB16:BG16"/>
-    <mergeCell ref="BH16:BL16"/>
-    <mergeCell ref="BM16:BZ16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:AO17"/>
-    <mergeCell ref="AP17:AU17"/>
-    <mergeCell ref="BB17:BG17"/>
-    <mergeCell ref="D22:AO22"/>
-    <mergeCell ref="AP22:AU22"/>
-    <mergeCell ref="AV22:BA22"/>
-    <mergeCell ref="BM23:BZ23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:AO23"/>
-    <mergeCell ref="AP23:AU23"/>
-    <mergeCell ref="AV23:BA23"/>
-    <mergeCell ref="BB23:BG23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:AO24"/>
-    <mergeCell ref="AP24:AU24"/>
-    <mergeCell ref="BB24:BG24"/>
-    <mergeCell ref="BH24:BL24"/>
-    <mergeCell ref="BM24:BZ24"/>
-    <mergeCell ref="AV19:BA19"/>
-    <mergeCell ref="BB19:BG19"/>
-    <mergeCell ref="BH19:BL19"/>
-    <mergeCell ref="BB22:BG22"/>
-    <mergeCell ref="BM21:BZ21"/>
-    <mergeCell ref="BH21:BL21"/>
-    <mergeCell ref="AV21:BA21"/>
-    <mergeCell ref="BH22:BL22"/>
-    <mergeCell ref="BH23:BL23"/>
-    <mergeCell ref="BM22:BZ22"/>
-    <mergeCell ref="AV24:BA24"/>
-    <mergeCell ref="BM19:BZ19"/>
-    <mergeCell ref="AV20:BA20"/>
-    <mergeCell ref="BB20:BG20"/>
-    <mergeCell ref="BH20:BL20"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="AI4:BI4"/>
+    <mergeCell ref="F5:M5"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BH16:BH24" xr:uid="{81DF97E9-0D0D-4CC4-A088-D1D175D99EA7}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BH16:BH28" xr:uid="{81DF97E9-0D0D-4CC4-A088-D1D175D99EA7}">
       <formula1>$BA$10:$BF$14</formula1>
     </dataValidation>
   </dataValidations>
@@ -5213,7 +5669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:BT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
@@ -5227,16 +5683,16 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="3" t="s">
         <v>70</v>
       </c>
@@ -5308,16 +5764,16 @@
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="42"/>
       <c r="N3" s="29" t="s">
         <v>73</v>
       </c>
@@ -5389,16 +5845,16 @@
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="3"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
@@ -5422,35 +5878,35 @@
       <c r="AF4" s="33"/>
       <c r="AG4" s="33"/>
       <c r="AH4" s="33"/>
-      <c r="AI4" s="45" t="s">
+      <c r="AI4" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="39"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="41"/>
+      <c r="AU4" s="41"/>
+      <c r="AV4" s="41"/>
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
+      <c r="BI4" s="42"/>
       <c r="BJ4" s="36"/>
       <c r="BK4" s="36"/>
       <c r="BL4" s="36"/>
@@ -5468,16 +5924,16 @@
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="3" t="s">
         <v>75</v>
       </c>
@@ -5545,64 +6001,64 @@
       <c r="C6" s="26"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="47"/>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="47"/>
-      <c r="AR6" s="47"/>
-      <c r="AS6" s="47"/>
-      <c r="AT6" s="47"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="47"/>
-      <c r="AW6" s="47"/>
-      <c r="AX6" s="47"/>
-      <c r="AY6" s="47"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="47"/>
-      <c r="BB6" s="47"/>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="47"/>
-      <c r="BE6" s="47"/>
-      <c r="BF6" s="47"/>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="47"/>
-      <c r="BI6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="50"/>
       <c r="BJ6" s="36"/>
       <c r="BK6" s="36"/>
       <c r="BL6" s="36"/>
@@ -5620,62 +6076,62 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
-      <c r="AJ7" s="50"/>
-      <c r="AK7" s="50"/>
-      <c r="AL7" s="50"/>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
-      <c r="AU7" s="50"/>
-      <c r="AV7" s="50"/>
-      <c r="AW7" s="50"/>
-      <c r="AX7" s="50"/>
-      <c r="AY7" s="50"/>
-      <c r="AZ7" s="50"/>
-      <c r="BA7" s="50"/>
-      <c r="BB7" s="50"/>
-      <c r="BC7" s="50"/>
-      <c r="BD7" s="50"/>
-      <c r="BE7" s="50"/>
-      <c r="BF7" s="50"/>
-      <c r="BG7" s="50"/>
-      <c r="BH7" s="50"/>
-      <c r="BI7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="52"/>
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="52"/>
+      <c r="BB7" s="52"/>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="52"/>
+      <c r="BI7" s="53"/>
       <c r="BJ7" s="36"/>
       <c r="BK7" s="36"/>
       <c r="BL7" s="36"/>
@@ -5689,33 +6145,33 @@
       <c r="BT7" s="36"/>
     </row>
     <row r="8" spans="2:72" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="137"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="137"/>
-      <c r="P8" s="137"/>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="137"/>
-      <c r="Y8" s="137"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
       <c r="Z8" s="36"/>
-      <c r="AA8" s="137"/>
-      <c r="AB8" s="137"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
       <c r="AC8" s="36"/>
       <c r="AD8" s="36"/>
       <c r="AE8" s="36"/>
@@ -5762,33 +6218,33 @@
       <c r="BT8" s="36"/>
     </row>
     <row r="9" spans="2:72" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="137"/>
-      <c r="N9" s="137"/>
-      <c r="O9" s="137"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="137"/>
-      <c r="U9" s="137"/>
-      <c r="V9" s="137"/>
-      <c r="W9" s="137"/>
-      <c r="X9" s="137"/>
-      <c r="Y9" s="137"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
       <c r="Z9" s="36"/>
-      <c r="AA9" s="137"/>
-      <c r="AB9" s="137"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
       <c r="AC9" s="36"/>
       <c r="AD9" s="36"/>
       <c r="AE9" s="36"/>
@@ -5813,14 +6269,14 @@
       <c r="AX9" s="36"/>
       <c r="AY9" s="36"/>
       <c r="AZ9" s="36"/>
-      <c r="BA9" s="138" t="s">
+      <c r="BA9" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="BB9" s="38"/>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="39"/>
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="41"/>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="42"/>
       <c r="BG9" s="36"/>
       <c r="BH9" s="36"/>
       <c r="BI9" s="36"/>
@@ -5837,33 +6293,33 @@
       <c r="BT9" s="36"/>
     </row>
     <row r="10" spans="2:72" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="137"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="137"/>
-      <c r="Y10" s="137"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
       <c r="Z10" s="36"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
       <c r="AC10" s="36"/>
       <c r="AD10" s="36"/>
       <c r="AE10" s="36"/>
@@ -5888,14 +6344,14 @@
       <c r="AX10" s="36"/>
       <c r="AY10" s="36"/>
       <c r="AZ10" s="36"/>
-      <c r="BA10" s="139" t="s">
+      <c r="BA10" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="BB10" s="38"/>
-      <c r="BC10" s="38"/>
-      <c r="BD10" s="38"/>
-      <c r="BE10" s="38"/>
-      <c r="BF10" s="39"/>
+      <c r="BB10" s="41"/>
+      <c r="BC10" s="41"/>
+      <c r="BD10" s="41"/>
+      <c r="BE10" s="41"/>
+      <c r="BF10" s="42"/>
       <c r="BG10" s="36"/>
       <c r="BH10" s="36"/>
       <c r="BI10" s="36"/>
@@ -5912,33 +6368,33 @@
       <c r="BT10" s="36"/>
     </row>
     <row r="11" spans="2:72" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="137"/>
-      <c r="U11" s="137"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="137"/>
-      <c r="Y11" s="137"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
       <c r="Z11" s="36"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="137"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
       <c r="AC11" s="36"/>
       <c r="AD11" s="36"/>
       <c r="AE11" s="36"/>
@@ -5963,14 +6419,14 @@
       <c r="AX11" s="36"/>
       <c r="AY11" s="36"/>
       <c r="AZ11" s="36"/>
-      <c r="BA11" s="139" t="s">
+      <c r="BA11" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="BB11" s="38"/>
-      <c r="BC11" s="38"/>
-      <c r="BD11" s="38"/>
-      <c r="BE11" s="38"/>
-      <c r="BF11" s="39"/>
+      <c r="BB11" s="41"/>
+      <c r="BC11" s="41"/>
+      <c r="BD11" s="41"/>
+      <c r="BE11" s="41"/>
+      <c r="BF11" s="42"/>
       <c r="BG11" s="36"/>
       <c r="BH11" s="36"/>
       <c r="BI11" s="36"/>
@@ -5987,43 +6443,43 @@
       <c r="BT11" s="36"/>
     </row>
     <row r="12" spans="2:72" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="141" t="str">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="144" t="str">
         <f>BA10</f>
         <v>Pass</v>
       </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="141" t="str">
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="144" t="str">
         <f>BA11</f>
         <v>Fail</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="141" t="str">
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="144" t="str">
         <f>BA12</f>
         <v>Pending</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="141" t="str">
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="144" t="str">
         <f>BA13</f>
         <v>Uncheck</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="141" t="s">
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="U12" s="38"/>
-      <c r="V12" s="39"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="42"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
       <c r="Y12" s="36"/>
@@ -6054,14 +6510,14 @@
       <c r="AX12" s="36"/>
       <c r="AY12" s="36"/>
       <c r="AZ12" s="36"/>
-      <c r="BA12" s="139" t="s">
+      <c r="BA12" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="BB12" s="38"/>
-      <c r="BC12" s="38"/>
-      <c r="BD12" s="38"/>
-      <c r="BE12" s="38"/>
-      <c r="BF12" s="39"/>
+      <c r="BB12" s="41"/>
+      <c r="BC12" s="41"/>
+      <c r="BD12" s="41"/>
+      <c r="BE12" s="41"/>
+      <c r="BF12" s="42"/>
       <c r="BG12" s="36"/>
       <c r="BH12" s="36"/>
       <c r="BI12" s="36"/>
@@ -6078,42 +6534,42 @@
       <c r="BT12" s="36"/>
     </row>
     <row r="13" spans="2:72" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="142">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="145">
         <f>COUNTIF($BB$16:$BF$32,$BA$10)</f>
         <v>17</v>
       </c>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="142">
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="145">
         <f>COUNTIF($BB$16:$BF$28,$BA$11)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="142">
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="145">
         <f>COUNTIF($BB$16:$BF$28,$BA$12)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="142">
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="145">
         <f>COUNTIF($BB$16:$BF$28,$BA$13)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="142">
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="145">
         <f>SUM(F13:S13)</f>
         <v>17</v>
       </c>
-      <c r="U13" s="38"/>
-      <c r="V13" s="39"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="42"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
@@ -6144,14 +6600,14 @@
       <c r="AX13" s="36"/>
       <c r="AY13" s="36"/>
       <c r="AZ13" s="36"/>
-      <c r="BA13" s="139" t="s">
+      <c r="BA13" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="BB13" s="38"/>
-      <c r="BC13" s="38"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="39"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="41"/>
+      <c r="BD13" s="41"/>
+      <c r="BE13" s="41"/>
+      <c r="BF13" s="42"/>
       <c r="BG13" s="36"/>
       <c r="BH13" s="36"/>
       <c r="BI13" s="36"/>
@@ -6168,17 +6624,17 @@
       <c r="BT13" s="36"/>
     </row>
     <row r="14" spans="2:72" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="137"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
       <c r="O14" s="36"/>
@@ -6193,8 +6649,8 @@
       <c r="X14" s="36"/>
       <c r="Y14" s="36"/>
       <c r="Z14" s="36"/>
-      <c r="AA14" s="137"/>
-      <c r="AB14" s="137"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
       <c r="AC14" s="36"/>
       <c r="AD14" s="36"/>
       <c r="AE14" s="36"/>
@@ -6241,1401 +6697,1401 @@
       <c r="BT14" s="36"/>
     </row>
     <row r="15" spans="2:72" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="145" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="145" t="s">
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="47"/>
-      <c r="AC15" s="47"/>
-      <c r="AD15" s="47"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47"/>
-      <c r="AG15" s="47"/>
-      <c r="AH15" s="47"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="47"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="47"/>
-      <c r="AN15" s="47"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="145" t="s">
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="49"/>
+      <c r="AL15" s="49"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="50"/>
+      <c r="AP15" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="AQ15" s="47"/>
-      <c r="AR15" s="47"/>
-      <c r="AS15" s="47"/>
-      <c r="AT15" s="47"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="146" t="s">
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="50"/>
+      <c r="AV15" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="AW15" s="38"/>
-      <c r="AX15" s="38"/>
-      <c r="AY15" s="38"/>
-      <c r="AZ15" s="38"/>
-      <c r="BA15" s="39"/>
-      <c r="BB15" s="146" t="s">
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="41"/>
+      <c r="BA15" s="42"/>
+      <c r="BB15" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="BC15" s="38"/>
-      <c r="BD15" s="38"/>
-      <c r="BE15" s="38"/>
-      <c r="BF15" s="39"/>
-      <c r="BG15" s="146" t="s">
+      <c r="BC15" s="41"/>
+      <c r="BD15" s="41"/>
+      <c r="BE15" s="41"/>
+      <c r="BF15" s="42"/>
+      <c r="BG15" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="BH15" s="38"/>
-      <c r="BI15" s="38"/>
-      <c r="BJ15" s="38"/>
-      <c r="BK15" s="38"/>
-      <c r="BL15" s="38"/>
-      <c r="BM15" s="38"/>
-      <c r="BN15" s="38"/>
-      <c r="BO15" s="38"/>
-      <c r="BP15" s="38"/>
-      <c r="BQ15" s="38"/>
-      <c r="BR15" s="38"/>
-      <c r="BS15" s="38"/>
-      <c r="BT15" s="39"/>
+      <c r="BH15" s="41"/>
+      <c r="BI15" s="41"/>
+      <c r="BJ15" s="41"/>
+      <c r="BK15" s="41"/>
+      <c r="BL15" s="41"/>
+      <c r="BM15" s="41"/>
+      <c r="BN15" s="41"/>
+      <c r="BO15" s="41"/>
+      <c r="BP15" s="41"/>
+      <c r="BQ15" s="41"/>
+      <c r="BR15" s="41"/>
+      <c r="BS15" s="41"/>
+      <c r="BT15" s="42"/>
     </row>
     <row r="16" spans="2:72" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="147">
+      <c r="B16" s="133">
         <v>1</v>
       </c>
-      <c r="C16" s="147"/>
-      <c r="D16" s="148" t="s">
+      <c r="C16" s="133"/>
+      <c r="D16" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="148"/>
-      <c r="N16" s="148"/>
-      <c r="O16" s="148"/>
-      <c r="P16" s="148" t="s">
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="134"/>
+      <c r="P16" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="148"/>
-      <c r="AF16" s="148"/>
-      <c r="AG16" s="148"/>
-      <c r="AH16" s="148"/>
-      <c r="AI16" s="148"/>
-      <c r="AJ16" s="148"/>
-      <c r="AK16" s="148"/>
-      <c r="AL16" s="148"/>
-      <c r="AM16" s="148"/>
-      <c r="AN16" s="148"/>
-      <c r="AO16" s="148"/>
-      <c r="AP16" s="147" t="s">
+      <c r="Q16" s="134"/>
+      <c r="R16" s="134"/>
+      <c r="S16" s="134"/>
+      <c r="T16" s="134"/>
+      <c r="U16" s="134"/>
+      <c r="V16" s="134"/>
+      <c r="W16" s="134"/>
+      <c r="X16" s="134"/>
+      <c r="Y16" s="134"/>
+      <c r="Z16" s="134"/>
+      <c r="AA16" s="134"/>
+      <c r="AB16" s="134"/>
+      <c r="AC16" s="134"/>
+      <c r="AD16" s="134"/>
+      <c r="AE16" s="134"/>
+      <c r="AF16" s="134"/>
+      <c r="AG16" s="134"/>
+      <c r="AH16" s="134"/>
+      <c r="AI16" s="134"/>
+      <c r="AJ16" s="134"/>
+      <c r="AK16" s="134"/>
+      <c r="AL16" s="134"/>
+      <c r="AM16" s="134"/>
+      <c r="AN16" s="134"/>
+      <c r="AO16" s="134"/>
+      <c r="AP16" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ16" s="147"/>
-      <c r="AR16" s="147"/>
-      <c r="AS16" s="147"/>
-      <c r="AT16" s="147"/>
-      <c r="AU16" s="147"/>
-      <c r="AV16" s="131" t="str">
+      <c r="AQ16" s="133"/>
+      <c r="AR16" s="133"/>
+      <c r="AS16" s="133"/>
+      <c r="AT16" s="133"/>
+      <c r="AU16" s="133"/>
+      <c r="AV16" s="135" t="str">
         <f>$AI4</f>
         <v>19/02/2025</v>
       </c>
-      <c r="AW16" s="131"/>
-      <c r="AX16" s="131"/>
-      <c r="AY16" s="131"/>
-      <c r="AZ16" s="131"/>
-      <c r="BA16" s="132"/>
-      <c r="BB16" s="130" t="s">
+      <c r="AW16" s="135"/>
+      <c r="AX16" s="135"/>
+      <c r="AY16" s="135"/>
+      <c r="AZ16" s="135"/>
+      <c r="BA16" s="136"/>
+      <c r="BB16" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC16" s="133"/>
-      <c r="BD16" s="133"/>
-      <c r="BE16" s="133"/>
-      <c r="BF16" s="134"/>
-      <c r="BG16" s="57"/>
-      <c r="BH16" s="58"/>
-      <c r="BI16" s="58"/>
-      <c r="BJ16" s="58"/>
-      <c r="BK16" s="58"/>
-      <c r="BL16" s="58"/>
-      <c r="BM16" s="58"/>
-      <c r="BN16" s="58"/>
-      <c r="BO16" s="58"/>
-      <c r="BP16" s="58"/>
-      <c r="BQ16" s="58"/>
-      <c r="BR16" s="58"/>
-      <c r="BS16" s="58"/>
-      <c r="BT16" s="135"/>
+      <c r="BC16" s="138"/>
+      <c r="BD16" s="138"/>
+      <c r="BE16" s="138"/>
+      <c r="BF16" s="139"/>
+      <c r="BG16" s="116"/>
+      <c r="BH16" s="117"/>
+      <c r="BI16" s="117"/>
+      <c r="BJ16" s="117"/>
+      <c r="BK16" s="117"/>
+      <c r="BL16" s="117"/>
+      <c r="BM16" s="117"/>
+      <c r="BN16" s="117"/>
+      <c r="BO16" s="117"/>
+      <c r="BP16" s="117"/>
+      <c r="BQ16" s="117"/>
+      <c r="BR16" s="117"/>
+      <c r="BS16" s="117"/>
+      <c r="BT16" s="140"/>
     </row>
     <row r="17" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="147">
+      <c r="B17" s="133">
         <v>2</v>
       </c>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148" t="s">
+      <c r="C17" s="133"/>
+      <c r="D17" s="134" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148" t="s">
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="148"/>
-      <c r="AG17" s="148"/>
-      <c r="AH17" s="148"/>
-      <c r="AI17" s="148"/>
-      <c r="AJ17" s="148"/>
-      <c r="AK17" s="148"/>
-      <c r="AL17" s="148"/>
-      <c r="AM17" s="148"/>
-      <c r="AN17" s="148"/>
-      <c r="AO17" s="148"/>
-      <c r="AP17" s="147" t="s">
+      <c r="Q17" s="134"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="134"/>
+      <c r="X17" s="134"/>
+      <c r="Y17" s="134"/>
+      <c r="Z17" s="134"/>
+      <c r="AA17" s="134"/>
+      <c r="AB17" s="134"/>
+      <c r="AC17" s="134"/>
+      <c r="AD17" s="134"/>
+      <c r="AE17" s="134"/>
+      <c r="AF17" s="134"/>
+      <c r="AG17" s="134"/>
+      <c r="AH17" s="134"/>
+      <c r="AI17" s="134"/>
+      <c r="AJ17" s="134"/>
+      <c r="AK17" s="134"/>
+      <c r="AL17" s="134"/>
+      <c r="AM17" s="134"/>
+      <c r="AN17" s="134"/>
+      <c r="AO17" s="134"/>
+      <c r="AP17" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ17" s="147"/>
-      <c r="AR17" s="147"/>
-      <c r="AS17" s="147"/>
-      <c r="AT17" s="147"/>
-      <c r="AU17" s="147"/>
-      <c r="AV17" s="131" t="str">
+      <c r="AQ17" s="133"/>
+      <c r="AR17" s="133"/>
+      <c r="AS17" s="133"/>
+      <c r="AT17" s="133"/>
+      <c r="AU17" s="133"/>
+      <c r="AV17" s="135" t="str">
         <f>$AV16</f>
         <v>19/02/2025</v>
       </c>
-      <c r="AW17" s="131"/>
-      <c r="AX17" s="131"/>
-      <c r="AY17" s="131"/>
-      <c r="AZ17" s="131"/>
-      <c r="BA17" s="132"/>
-      <c r="BB17" s="130" t="s">
+      <c r="AW17" s="135"/>
+      <c r="AX17" s="135"/>
+      <c r="AY17" s="135"/>
+      <c r="AZ17" s="135"/>
+      <c r="BA17" s="136"/>
+      <c r="BB17" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC17" s="133"/>
-      <c r="BD17" s="133"/>
-      <c r="BE17" s="133"/>
-      <c r="BF17" s="134"/>
-      <c r="BG17" s="57"/>
-      <c r="BH17" s="58"/>
-      <c r="BI17" s="58"/>
-      <c r="BJ17" s="58"/>
-      <c r="BK17" s="58"/>
-      <c r="BL17" s="58"/>
-      <c r="BM17" s="58"/>
-      <c r="BN17" s="58"/>
-      <c r="BO17" s="58"/>
-      <c r="BP17" s="58"/>
-      <c r="BQ17" s="58"/>
-      <c r="BR17" s="58"/>
-      <c r="BS17" s="58"/>
-      <c r="BT17" s="135"/>
+      <c r="BC17" s="138"/>
+      <c r="BD17" s="138"/>
+      <c r="BE17" s="138"/>
+      <c r="BF17" s="139"/>
+      <c r="BG17" s="116"/>
+      <c r="BH17" s="117"/>
+      <c r="BI17" s="117"/>
+      <c r="BJ17" s="117"/>
+      <c r="BK17" s="117"/>
+      <c r="BL17" s="117"/>
+      <c r="BM17" s="117"/>
+      <c r="BN17" s="117"/>
+      <c r="BO17" s="117"/>
+      <c r="BP17" s="117"/>
+      <c r="BQ17" s="117"/>
+      <c r="BR17" s="117"/>
+      <c r="BS17" s="117"/>
+      <c r="BT17" s="140"/>
     </row>
     <row r="18" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="147">
+      <c r="B18" s="133">
         <v>3</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148" t="s">
+      <c r="C18" s="133"/>
+      <c r="D18" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148" t="s">
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="148"/>
-      <c r="AG18" s="148"/>
-      <c r="AH18" s="148"/>
-      <c r="AI18" s="148"/>
-      <c r="AJ18" s="148"/>
-      <c r="AK18" s="148"/>
-      <c r="AL18" s="148"/>
-      <c r="AM18" s="148"/>
-      <c r="AN18" s="148"/>
-      <c r="AO18" s="148"/>
-      <c r="AP18" s="147" t="s">
+      <c r="Q18" s="134"/>
+      <c r="R18" s="134"/>
+      <c r="S18" s="134"/>
+      <c r="T18" s="134"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="134"/>
+      <c r="X18" s="134"/>
+      <c r="Y18" s="134"/>
+      <c r="Z18" s="134"/>
+      <c r="AA18" s="134"/>
+      <c r="AB18" s="134"/>
+      <c r="AC18" s="134"/>
+      <c r="AD18" s="134"/>
+      <c r="AE18" s="134"/>
+      <c r="AF18" s="134"/>
+      <c r="AG18" s="134"/>
+      <c r="AH18" s="134"/>
+      <c r="AI18" s="134"/>
+      <c r="AJ18" s="134"/>
+      <c r="AK18" s="134"/>
+      <c r="AL18" s="134"/>
+      <c r="AM18" s="134"/>
+      <c r="AN18" s="134"/>
+      <c r="AO18" s="134"/>
+      <c r="AP18" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ18" s="147"/>
-      <c r="AR18" s="147"/>
-      <c r="AS18" s="147"/>
-      <c r="AT18" s="147"/>
-      <c r="AU18" s="147"/>
-      <c r="AV18" s="131" t="str">
+      <c r="AQ18" s="133"/>
+      <c r="AR18" s="133"/>
+      <c r="AS18" s="133"/>
+      <c r="AT18" s="133"/>
+      <c r="AU18" s="133"/>
+      <c r="AV18" s="135" t="str">
         <f t="shared" ref="AV18:AV32" si="0">$AV17</f>
         <v>19/02/2025</v>
       </c>
-      <c r="AW18" s="131"/>
-      <c r="AX18" s="131"/>
-      <c r="AY18" s="131"/>
-      <c r="AZ18" s="131"/>
-      <c r="BA18" s="132"/>
-      <c r="BB18" s="130" t="s">
+      <c r="AW18" s="135"/>
+      <c r="AX18" s="135"/>
+      <c r="AY18" s="135"/>
+      <c r="AZ18" s="135"/>
+      <c r="BA18" s="136"/>
+      <c r="BB18" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC18" s="133"/>
-      <c r="BD18" s="133"/>
-      <c r="BE18" s="133"/>
-      <c r="BF18" s="134"/>
-      <c r="BG18" s="57"/>
-      <c r="BH18" s="58"/>
-      <c r="BI18" s="58"/>
-      <c r="BJ18" s="58"/>
-      <c r="BK18" s="58"/>
-      <c r="BL18" s="58"/>
-      <c r="BM18" s="58"/>
-      <c r="BN18" s="58"/>
-      <c r="BO18" s="58"/>
-      <c r="BP18" s="58"/>
-      <c r="BQ18" s="58"/>
-      <c r="BR18" s="58"/>
-      <c r="BS18" s="58"/>
-      <c r="BT18" s="135"/>
+      <c r="BC18" s="138"/>
+      <c r="BD18" s="138"/>
+      <c r="BE18" s="138"/>
+      <c r="BF18" s="139"/>
+      <c r="BG18" s="116"/>
+      <c r="BH18" s="117"/>
+      <c r="BI18" s="117"/>
+      <c r="BJ18" s="117"/>
+      <c r="BK18" s="117"/>
+      <c r="BL18" s="117"/>
+      <c r="BM18" s="117"/>
+      <c r="BN18" s="117"/>
+      <c r="BO18" s="117"/>
+      <c r="BP18" s="117"/>
+      <c r="BQ18" s="117"/>
+      <c r="BR18" s="117"/>
+      <c r="BS18" s="117"/>
+      <c r="BT18" s="140"/>
     </row>
     <row r="19" spans="2:72" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="147">
+      <c r="B19" s="133">
         <v>4</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="148" t="s">
+      <c r="C19" s="133"/>
+      <c r="D19" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
-      <c r="K19" s="148"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="148"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="148"/>
-      <c r="P19" s="148" t="s">
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="148"/>
-      <c r="AF19" s="148"/>
-      <c r="AG19" s="148"/>
-      <c r="AH19" s="148"/>
-      <c r="AI19" s="148"/>
-      <c r="AJ19" s="148"/>
-      <c r="AK19" s="148"/>
-      <c r="AL19" s="148"/>
-      <c r="AM19" s="148"/>
-      <c r="AN19" s="148"/>
-      <c r="AO19" s="148"/>
-      <c r="AP19" s="147" t="s">
+      <c r="Q19" s="134"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="134"/>
+      <c r="X19" s="134"/>
+      <c r="Y19" s="134"/>
+      <c r="Z19" s="134"/>
+      <c r="AA19" s="134"/>
+      <c r="AB19" s="134"/>
+      <c r="AC19" s="134"/>
+      <c r="AD19" s="134"/>
+      <c r="AE19" s="134"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="134"/>
+      <c r="AH19" s="134"/>
+      <c r="AI19" s="134"/>
+      <c r="AJ19" s="134"/>
+      <c r="AK19" s="134"/>
+      <c r="AL19" s="134"/>
+      <c r="AM19" s="134"/>
+      <c r="AN19" s="134"/>
+      <c r="AO19" s="134"/>
+      <c r="AP19" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ19" s="147"/>
-      <c r="AR19" s="147"/>
-      <c r="AS19" s="147"/>
-      <c r="AT19" s="147"/>
-      <c r="AU19" s="147"/>
-      <c r="AV19" s="131" t="str">
+      <c r="AQ19" s="133"/>
+      <c r="AR19" s="133"/>
+      <c r="AS19" s="133"/>
+      <c r="AT19" s="133"/>
+      <c r="AU19" s="133"/>
+      <c r="AV19" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW19" s="131"/>
-      <c r="AX19" s="131"/>
-      <c r="AY19" s="131"/>
-      <c r="AZ19" s="131"/>
-      <c r="BA19" s="132"/>
-      <c r="BB19" s="130" t="s">
+      <c r="AW19" s="135"/>
+      <c r="AX19" s="135"/>
+      <c r="AY19" s="135"/>
+      <c r="AZ19" s="135"/>
+      <c r="BA19" s="136"/>
+      <c r="BB19" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC19" s="133"/>
-      <c r="BD19" s="133"/>
-      <c r="BE19" s="133"/>
-      <c r="BF19" s="134"/>
-      <c r="BG19" s="57"/>
-      <c r="BH19" s="58"/>
-      <c r="BI19" s="58"/>
-      <c r="BJ19" s="58"/>
-      <c r="BK19" s="58"/>
-      <c r="BL19" s="58"/>
-      <c r="BM19" s="58"/>
-      <c r="BN19" s="58"/>
-      <c r="BO19" s="58"/>
-      <c r="BP19" s="58"/>
-      <c r="BQ19" s="58"/>
-      <c r="BR19" s="58"/>
-      <c r="BS19" s="58"/>
-      <c r="BT19" s="135"/>
+      <c r="BC19" s="138"/>
+      <c r="BD19" s="138"/>
+      <c r="BE19" s="138"/>
+      <c r="BF19" s="139"/>
+      <c r="BG19" s="116"/>
+      <c r="BH19" s="117"/>
+      <c r="BI19" s="117"/>
+      <c r="BJ19" s="117"/>
+      <c r="BK19" s="117"/>
+      <c r="BL19" s="117"/>
+      <c r="BM19" s="117"/>
+      <c r="BN19" s="117"/>
+      <c r="BO19" s="117"/>
+      <c r="BP19" s="117"/>
+      <c r="BQ19" s="117"/>
+      <c r="BR19" s="117"/>
+      <c r="BS19" s="117"/>
+      <c r="BT19" s="140"/>
     </row>
     <row r="20" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="147">
+      <c r="B20" s="133">
         <v>5</v>
       </c>
-      <c r="C20" s="147"/>
-      <c r="D20" s="148" t="s">
+      <c r="C20" s="133"/>
+      <c r="D20" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
-      <c r="K20" s="148"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="148"/>
-      <c r="N20" s="148"/>
-      <c r="O20" s="148"/>
-      <c r="P20" s="148" t="s">
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="148"/>
-      <c r="AF20" s="148"/>
-      <c r="AG20" s="148"/>
-      <c r="AH20" s="148"/>
-      <c r="AI20" s="148"/>
-      <c r="AJ20" s="148"/>
-      <c r="AK20" s="148"/>
-      <c r="AL20" s="148"/>
-      <c r="AM20" s="148"/>
-      <c r="AN20" s="148"/>
-      <c r="AO20" s="148"/>
-      <c r="AP20" s="147" t="s">
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134"/>
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="134"/>
+      <c r="X20" s="134"/>
+      <c r="Y20" s="134"/>
+      <c r="Z20" s="134"/>
+      <c r="AA20" s="134"/>
+      <c r="AB20" s="134"/>
+      <c r="AC20" s="134"/>
+      <c r="AD20" s="134"/>
+      <c r="AE20" s="134"/>
+      <c r="AF20" s="134"/>
+      <c r="AG20" s="134"/>
+      <c r="AH20" s="134"/>
+      <c r="AI20" s="134"/>
+      <c r="AJ20" s="134"/>
+      <c r="AK20" s="134"/>
+      <c r="AL20" s="134"/>
+      <c r="AM20" s="134"/>
+      <c r="AN20" s="134"/>
+      <c r="AO20" s="134"/>
+      <c r="AP20" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ20" s="147"/>
-      <c r="AR20" s="147"/>
-      <c r="AS20" s="147"/>
-      <c r="AT20" s="147"/>
-      <c r="AU20" s="147"/>
-      <c r="AV20" s="131" t="str">
+      <c r="AQ20" s="133"/>
+      <c r="AR20" s="133"/>
+      <c r="AS20" s="133"/>
+      <c r="AT20" s="133"/>
+      <c r="AU20" s="133"/>
+      <c r="AV20" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW20" s="131"/>
-      <c r="AX20" s="131"/>
-      <c r="AY20" s="131"/>
-      <c r="AZ20" s="131"/>
-      <c r="BA20" s="132"/>
-      <c r="BB20" s="130" t="s">
+      <c r="AW20" s="135"/>
+      <c r="AX20" s="135"/>
+      <c r="AY20" s="135"/>
+      <c r="AZ20" s="135"/>
+      <c r="BA20" s="136"/>
+      <c r="BB20" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC20" s="133"/>
-      <c r="BD20" s="133"/>
-      <c r="BE20" s="133"/>
-      <c r="BF20" s="134"/>
-      <c r="BG20" s="57"/>
-      <c r="BH20" s="58"/>
-      <c r="BI20" s="58"/>
-      <c r="BJ20" s="58"/>
-      <c r="BK20" s="58"/>
-      <c r="BL20" s="58"/>
-      <c r="BM20" s="58"/>
-      <c r="BN20" s="58"/>
-      <c r="BO20" s="58"/>
-      <c r="BP20" s="58"/>
-      <c r="BQ20" s="58"/>
-      <c r="BR20" s="58"/>
-      <c r="BS20" s="58"/>
-      <c r="BT20" s="135"/>
+      <c r="BC20" s="138"/>
+      <c r="BD20" s="138"/>
+      <c r="BE20" s="138"/>
+      <c r="BF20" s="139"/>
+      <c r="BG20" s="116"/>
+      <c r="BH20" s="117"/>
+      <c r="BI20" s="117"/>
+      <c r="BJ20" s="117"/>
+      <c r="BK20" s="117"/>
+      <c r="BL20" s="117"/>
+      <c r="BM20" s="117"/>
+      <c r="BN20" s="117"/>
+      <c r="BO20" s="117"/>
+      <c r="BP20" s="117"/>
+      <c r="BQ20" s="117"/>
+      <c r="BR20" s="117"/>
+      <c r="BS20" s="117"/>
+      <c r="BT20" s="140"/>
     </row>
     <row r="21" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="147">
+      <c r="B21" s="133">
         <v>6</v>
       </c>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148" t="s">
+      <c r="C21" s="133"/>
+      <c r="D21" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="148"/>
-      <c r="N21" s="148"/>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148" t="s">
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="148"/>
-      <c r="AF21" s="148"/>
-      <c r="AG21" s="148"/>
-      <c r="AH21" s="148"/>
-      <c r="AI21" s="148"/>
-      <c r="AJ21" s="148"/>
-      <c r="AK21" s="148"/>
-      <c r="AL21" s="148"/>
-      <c r="AM21" s="148"/>
-      <c r="AN21" s="148"/>
-      <c r="AO21" s="148"/>
-      <c r="AP21" s="147" t="s">
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="134"/>
+      <c r="X21" s="134"/>
+      <c r="Y21" s="134"/>
+      <c r="Z21" s="134"/>
+      <c r="AA21" s="134"/>
+      <c r="AB21" s="134"/>
+      <c r="AC21" s="134"/>
+      <c r="AD21" s="134"/>
+      <c r="AE21" s="134"/>
+      <c r="AF21" s="134"/>
+      <c r="AG21" s="134"/>
+      <c r="AH21" s="134"/>
+      <c r="AI21" s="134"/>
+      <c r="AJ21" s="134"/>
+      <c r="AK21" s="134"/>
+      <c r="AL21" s="134"/>
+      <c r="AM21" s="134"/>
+      <c r="AN21" s="134"/>
+      <c r="AO21" s="134"/>
+      <c r="AP21" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ21" s="147"/>
-      <c r="AR21" s="147"/>
-      <c r="AS21" s="147"/>
-      <c r="AT21" s="147"/>
-      <c r="AU21" s="147"/>
-      <c r="AV21" s="131" t="str">
+      <c r="AQ21" s="133"/>
+      <c r="AR21" s="133"/>
+      <c r="AS21" s="133"/>
+      <c r="AT21" s="133"/>
+      <c r="AU21" s="133"/>
+      <c r="AV21" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW21" s="131"/>
-      <c r="AX21" s="131"/>
-      <c r="AY21" s="131"/>
-      <c r="AZ21" s="131"/>
-      <c r="BA21" s="132"/>
-      <c r="BB21" s="130" t="s">
+      <c r="AW21" s="135"/>
+      <c r="AX21" s="135"/>
+      <c r="AY21" s="135"/>
+      <c r="AZ21" s="135"/>
+      <c r="BA21" s="136"/>
+      <c r="BB21" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC21" s="133"/>
-      <c r="BD21" s="133"/>
-      <c r="BE21" s="133"/>
-      <c r="BF21" s="134"/>
-      <c r="BG21" s="57"/>
-      <c r="BH21" s="58"/>
-      <c r="BI21" s="58"/>
-      <c r="BJ21" s="58"/>
-      <c r="BK21" s="58"/>
-      <c r="BL21" s="58"/>
-      <c r="BM21" s="58"/>
-      <c r="BN21" s="58"/>
-      <c r="BO21" s="58"/>
-      <c r="BP21" s="58"/>
-      <c r="BQ21" s="58"/>
-      <c r="BR21" s="58"/>
-      <c r="BS21" s="58"/>
-      <c r="BT21" s="135"/>
+      <c r="BC21" s="138"/>
+      <c r="BD21" s="138"/>
+      <c r="BE21" s="138"/>
+      <c r="BF21" s="139"/>
+      <c r="BG21" s="116"/>
+      <c r="BH21" s="117"/>
+      <c r="BI21" s="117"/>
+      <c r="BJ21" s="117"/>
+      <c r="BK21" s="117"/>
+      <c r="BL21" s="117"/>
+      <c r="BM21" s="117"/>
+      <c r="BN21" s="117"/>
+      <c r="BO21" s="117"/>
+      <c r="BP21" s="117"/>
+      <c r="BQ21" s="117"/>
+      <c r="BR21" s="117"/>
+      <c r="BS21" s="117"/>
+      <c r="BT21" s="140"/>
     </row>
     <row r="22" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="147">
+      <c r="B22" s="133">
         <v>7</v>
       </c>
-      <c r="C22" s="147"/>
-      <c r="D22" s="148" t="s">
+      <c r="C22" s="133"/>
+      <c r="D22" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="148"/>
-      <c r="O22" s="148"/>
-      <c r="P22" s="148" t="s">
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="148"/>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148"/>
-      <c r="AE22" s="148"/>
-      <c r="AF22" s="148"/>
-      <c r="AG22" s="148"/>
-      <c r="AH22" s="148"/>
-      <c r="AI22" s="148"/>
-      <c r="AJ22" s="148"/>
-      <c r="AK22" s="148"/>
-      <c r="AL22" s="148"/>
-      <c r="AM22" s="148"/>
-      <c r="AN22" s="148"/>
-      <c r="AO22" s="148"/>
-      <c r="AP22" s="147" t="s">
+      <c r="Q22" s="134"/>
+      <c r="R22" s="134"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="134"/>
+      <c r="W22" s="134"/>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134"/>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="134"/>
+      <c r="AB22" s="134"/>
+      <c r="AC22" s="134"/>
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="134"/>
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="134"/>
+      <c r="AI22" s="134"/>
+      <c r="AJ22" s="134"/>
+      <c r="AK22" s="134"/>
+      <c r="AL22" s="134"/>
+      <c r="AM22" s="134"/>
+      <c r="AN22" s="134"/>
+      <c r="AO22" s="134"/>
+      <c r="AP22" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ22" s="147"/>
-      <c r="AR22" s="147"/>
-      <c r="AS22" s="147"/>
-      <c r="AT22" s="147"/>
-      <c r="AU22" s="147"/>
-      <c r="AV22" s="131" t="str">
+      <c r="AQ22" s="133"/>
+      <c r="AR22" s="133"/>
+      <c r="AS22" s="133"/>
+      <c r="AT22" s="133"/>
+      <c r="AU22" s="133"/>
+      <c r="AV22" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW22" s="131"/>
-      <c r="AX22" s="131"/>
-      <c r="AY22" s="131"/>
-      <c r="AZ22" s="131"/>
-      <c r="BA22" s="132"/>
-      <c r="BB22" s="130" t="s">
+      <c r="AW22" s="135"/>
+      <c r="AX22" s="135"/>
+      <c r="AY22" s="135"/>
+      <c r="AZ22" s="135"/>
+      <c r="BA22" s="136"/>
+      <c r="BB22" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC22" s="133"/>
-      <c r="BD22" s="133"/>
-      <c r="BE22" s="133"/>
-      <c r="BF22" s="134"/>
-      <c r="BG22" s="57"/>
-      <c r="BH22" s="58"/>
-      <c r="BI22" s="58"/>
-      <c r="BJ22" s="58"/>
-      <c r="BK22" s="58"/>
-      <c r="BL22" s="58"/>
-      <c r="BM22" s="58"/>
-      <c r="BN22" s="58"/>
-      <c r="BO22" s="58"/>
-      <c r="BP22" s="58"/>
-      <c r="BQ22" s="58"/>
-      <c r="BR22" s="58"/>
-      <c r="BS22" s="58"/>
-      <c r="BT22" s="135"/>
+      <c r="BC22" s="138"/>
+      <c r="BD22" s="138"/>
+      <c r="BE22" s="138"/>
+      <c r="BF22" s="139"/>
+      <c r="BG22" s="116"/>
+      <c r="BH22" s="117"/>
+      <c r="BI22" s="117"/>
+      <c r="BJ22" s="117"/>
+      <c r="BK22" s="117"/>
+      <c r="BL22" s="117"/>
+      <c r="BM22" s="117"/>
+      <c r="BN22" s="117"/>
+      <c r="BO22" s="117"/>
+      <c r="BP22" s="117"/>
+      <c r="BQ22" s="117"/>
+      <c r="BR22" s="117"/>
+      <c r="BS22" s="117"/>
+      <c r="BT22" s="140"/>
     </row>
     <row r="23" spans="2:72" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="147">
+      <c r="B23" s="133">
         <v>8</v>
       </c>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148" t="s">
+      <c r="C23" s="133"/>
+      <c r="D23" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="148"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="148"/>
-      <c r="O23" s="148"/>
-      <c r="P23" s="148" t="s">
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="148"/>
-      <c r="AC23" s="148"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="148"/>
-      <c r="AF23" s="148"/>
-      <c r="AG23" s="148"/>
-      <c r="AH23" s="148"/>
-      <c r="AI23" s="148"/>
-      <c r="AJ23" s="148"/>
-      <c r="AK23" s="148"/>
-      <c r="AL23" s="148"/>
-      <c r="AM23" s="148"/>
-      <c r="AN23" s="148"/>
-      <c r="AO23" s="148"/>
-      <c r="AP23" s="147" t="s">
+      <c r="Q23" s="134"/>
+      <c r="R23" s="134"/>
+      <c r="S23" s="134"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="134"/>
+      <c r="W23" s="134"/>
+      <c r="X23" s="134"/>
+      <c r="Y23" s="134"/>
+      <c r="Z23" s="134"/>
+      <c r="AA23" s="134"/>
+      <c r="AB23" s="134"/>
+      <c r="AC23" s="134"/>
+      <c r="AD23" s="134"/>
+      <c r="AE23" s="134"/>
+      <c r="AF23" s="134"/>
+      <c r="AG23" s="134"/>
+      <c r="AH23" s="134"/>
+      <c r="AI23" s="134"/>
+      <c r="AJ23" s="134"/>
+      <c r="AK23" s="134"/>
+      <c r="AL23" s="134"/>
+      <c r="AM23" s="134"/>
+      <c r="AN23" s="134"/>
+      <c r="AO23" s="134"/>
+      <c r="AP23" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ23" s="147"/>
-      <c r="AR23" s="147"/>
-      <c r="AS23" s="147"/>
-      <c r="AT23" s="147"/>
-      <c r="AU23" s="147"/>
-      <c r="AV23" s="131" t="str">
+      <c r="AQ23" s="133"/>
+      <c r="AR23" s="133"/>
+      <c r="AS23" s="133"/>
+      <c r="AT23" s="133"/>
+      <c r="AU23" s="133"/>
+      <c r="AV23" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW23" s="131"/>
-      <c r="AX23" s="131"/>
-      <c r="AY23" s="131"/>
-      <c r="AZ23" s="131"/>
-      <c r="BA23" s="132"/>
-      <c r="BB23" s="130" t="s">
+      <c r="AW23" s="135"/>
+      <c r="AX23" s="135"/>
+      <c r="AY23" s="135"/>
+      <c r="AZ23" s="135"/>
+      <c r="BA23" s="136"/>
+      <c r="BB23" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC23" s="133"/>
-      <c r="BD23" s="133"/>
-      <c r="BE23" s="133"/>
-      <c r="BF23" s="134"/>
-      <c r="BG23" s="57"/>
-      <c r="BH23" s="58"/>
-      <c r="BI23" s="58"/>
-      <c r="BJ23" s="58"/>
-      <c r="BK23" s="58"/>
-      <c r="BL23" s="58"/>
-      <c r="BM23" s="58"/>
-      <c r="BN23" s="58"/>
-      <c r="BO23" s="58"/>
-      <c r="BP23" s="58"/>
-      <c r="BQ23" s="58"/>
-      <c r="BR23" s="58"/>
-      <c r="BS23" s="58"/>
-      <c r="BT23" s="135"/>
+      <c r="BC23" s="138"/>
+      <c r="BD23" s="138"/>
+      <c r="BE23" s="138"/>
+      <c r="BF23" s="139"/>
+      <c r="BG23" s="116"/>
+      <c r="BH23" s="117"/>
+      <c r="BI23" s="117"/>
+      <c r="BJ23" s="117"/>
+      <c r="BK23" s="117"/>
+      <c r="BL23" s="117"/>
+      <c r="BM23" s="117"/>
+      <c r="BN23" s="117"/>
+      <c r="BO23" s="117"/>
+      <c r="BP23" s="117"/>
+      <c r="BQ23" s="117"/>
+      <c r="BR23" s="117"/>
+      <c r="BS23" s="117"/>
+      <c r="BT23" s="140"/>
     </row>
     <row r="24" spans="2:72" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="147">
+      <c r="B24" s="133">
         <v>9</v>
       </c>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148" t="s">
+      <c r="C24" s="133"/>
+      <c r="D24" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="148"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="148"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="148"/>
-      <c r="P24" s="148" t="s">
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="148"/>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="148"/>
-      <c r="AB24" s="148"/>
-      <c r="AC24" s="148"/>
-      <c r="AD24" s="148"/>
-      <c r="AE24" s="148"/>
-      <c r="AF24" s="148"/>
-      <c r="AG24" s="148"/>
-      <c r="AH24" s="148"/>
-      <c r="AI24" s="148"/>
-      <c r="AJ24" s="148"/>
-      <c r="AK24" s="148"/>
-      <c r="AL24" s="148"/>
-      <c r="AM24" s="148"/>
-      <c r="AN24" s="148"/>
-      <c r="AO24" s="148"/>
-      <c r="AP24" s="147" t="s">
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="134"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="134"/>
+      <c r="W24" s="134"/>
+      <c r="X24" s="134"/>
+      <c r="Y24" s="134"/>
+      <c r="Z24" s="134"/>
+      <c r="AA24" s="134"/>
+      <c r="AB24" s="134"/>
+      <c r="AC24" s="134"/>
+      <c r="AD24" s="134"/>
+      <c r="AE24" s="134"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="134"/>
+      <c r="AH24" s="134"/>
+      <c r="AI24" s="134"/>
+      <c r="AJ24" s="134"/>
+      <c r="AK24" s="134"/>
+      <c r="AL24" s="134"/>
+      <c r="AM24" s="134"/>
+      <c r="AN24" s="134"/>
+      <c r="AO24" s="134"/>
+      <c r="AP24" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ24" s="147"/>
-      <c r="AR24" s="147"/>
-      <c r="AS24" s="147"/>
-      <c r="AT24" s="147"/>
-      <c r="AU24" s="147"/>
-      <c r="AV24" s="131" t="str">
+      <c r="AQ24" s="133"/>
+      <c r="AR24" s="133"/>
+      <c r="AS24" s="133"/>
+      <c r="AT24" s="133"/>
+      <c r="AU24" s="133"/>
+      <c r="AV24" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW24" s="131"/>
-      <c r="AX24" s="131"/>
-      <c r="AY24" s="131"/>
-      <c r="AZ24" s="131"/>
-      <c r="BA24" s="132"/>
-      <c r="BB24" s="130" t="s">
+      <c r="AW24" s="135"/>
+      <c r="AX24" s="135"/>
+      <c r="AY24" s="135"/>
+      <c r="AZ24" s="135"/>
+      <c r="BA24" s="136"/>
+      <c r="BB24" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC24" s="133"/>
-      <c r="BD24" s="133"/>
-      <c r="BE24" s="133"/>
-      <c r="BF24" s="134"/>
-      <c r="BG24" s="57"/>
-      <c r="BH24" s="58"/>
-      <c r="BI24" s="58"/>
-      <c r="BJ24" s="58"/>
-      <c r="BK24" s="58"/>
-      <c r="BL24" s="58"/>
-      <c r="BM24" s="58"/>
-      <c r="BN24" s="58"/>
-      <c r="BO24" s="58"/>
-      <c r="BP24" s="58"/>
-      <c r="BQ24" s="58"/>
-      <c r="BR24" s="58"/>
-      <c r="BS24" s="58"/>
-      <c r="BT24" s="135"/>
+      <c r="BC24" s="138"/>
+      <c r="BD24" s="138"/>
+      <c r="BE24" s="138"/>
+      <c r="BF24" s="139"/>
+      <c r="BG24" s="116"/>
+      <c r="BH24" s="117"/>
+      <c r="BI24" s="117"/>
+      <c r="BJ24" s="117"/>
+      <c r="BK24" s="117"/>
+      <c r="BL24" s="117"/>
+      <c r="BM24" s="117"/>
+      <c r="BN24" s="117"/>
+      <c r="BO24" s="117"/>
+      <c r="BP24" s="117"/>
+      <c r="BQ24" s="117"/>
+      <c r="BR24" s="117"/>
+      <c r="BS24" s="117"/>
+      <c r="BT24" s="140"/>
     </row>
     <row r="25" spans="2:72" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="147">
+      <c r="B25" s="133">
         <v>10</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="148" t="s">
+      <c r="C25" s="133"/>
+      <c r="D25" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="148"/>
-      <c r="P25" s="148" t="s">
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="148"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="148"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="148"/>
-      <c r="AF25" s="148"/>
-      <c r="AG25" s="148"/>
-      <c r="AH25" s="148"/>
-      <c r="AI25" s="148"/>
-      <c r="AJ25" s="148"/>
-      <c r="AK25" s="148"/>
-      <c r="AL25" s="148"/>
-      <c r="AM25" s="148"/>
-      <c r="AN25" s="148"/>
-      <c r="AO25" s="148"/>
-      <c r="AP25" s="147" t="s">
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="134"/>
+      <c r="AC25" s="134"/>
+      <c r="AD25" s="134"/>
+      <c r="AE25" s="134"/>
+      <c r="AF25" s="134"/>
+      <c r="AG25" s="134"/>
+      <c r="AH25" s="134"/>
+      <c r="AI25" s="134"/>
+      <c r="AJ25" s="134"/>
+      <c r="AK25" s="134"/>
+      <c r="AL25" s="134"/>
+      <c r="AM25" s="134"/>
+      <c r="AN25" s="134"/>
+      <c r="AO25" s="134"/>
+      <c r="AP25" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ25" s="147"/>
-      <c r="AR25" s="147"/>
-      <c r="AS25" s="147"/>
-      <c r="AT25" s="147"/>
-      <c r="AU25" s="147"/>
-      <c r="AV25" s="131" t="str">
+      <c r="AQ25" s="133"/>
+      <c r="AR25" s="133"/>
+      <c r="AS25" s="133"/>
+      <c r="AT25" s="133"/>
+      <c r="AU25" s="133"/>
+      <c r="AV25" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW25" s="131"/>
-      <c r="AX25" s="131"/>
-      <c r="AY25" s="131"/>
-      <c r="AZ25" s="131"/>
-      <c r="BA25" s="132"/>
-      <c r="BB25" s="130" t="s">
+      <c r="AW25" s="135"/>
+      <c r="AX25" s="135"/>
+      <c r="AY25" s="135"/>
+      <c r="AZ25" s="135"/>
+      <c r="BA25" s="136"/>
+      <c r="BB25" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC25" s="133"/>
-      <c r="BD25" s="133"/>
-      <c r="BE25" s="133"/>
-      <c r="BF25" s="134"/>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="58"/>
-      <c r="BI25" s="58"/>
-      <c r="BJ25" s="58"/>
-      <c r="BK25" s="58"/>
-      <c r="BL25" s="58"/>
-      <c r="BM25" s="58"/>
-      <c r="BN25" s="58"/>
-      <c r="BO25" s="58"/>
-      <c r="BP25" s="58"/>
-      <c r="BQ25" s="58"/>
-      <c r="BR25" s="58"/>
-      <c r="BS25" s="58"/>
-      <c r="BT25" s="135"/>
+      <c r="BC25" s="138"/>
+      <c r="BD25" s="138"/>
+      <c r="BE25" s="138"/>
+      <c r="BF25" s="139"/>
+      <c r="BG25" s="116"/>
+      <c r="BH25" s="117"/>
+      <c r="BI25" s="117"/>
+      <c r="BJ25" s="117"/>
+      <c r="BK25" s="117"/>
+      <c r="BL25" s="117"/>
+      <c r="BM25" s="117"/>
+      <c r="BN25" s="117"/>
+      <c r="BO25" s="117"/>
+      <c r="BP25" s="117"/>
+      <c r="BQ25" s="117"/>
+      <c r="BR25" s="117"/>
+      <c r="BS25" s="117"/>
+      <c r="BT25" s="140"/>
     </row>
     <row r="26" spans="2:72" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="147">
+      <c r="B26" s="133">
         <v>11</v>
       </c>
-      <c r="C26" s="147"/>
-      <c r="D26" s="148" t="s">
+      <c r="C26" s="133"/>
+      <c r="D26" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="148"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="148"/>
-      <c r="P26" s="148" t="s">
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="148"/>
-      <c r="Y26" s="148"/>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="148"/>
-      <c r="AB26" s="148"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="148"/>
-      <c r="AE26" s="148"/>
-      <c r="AF26" s="148"/>
-      <c r="AG26" s="148"/>
-      <c r="AH26" s="148"/>
-      <c r="AI26" s="148"/>
-      <c r="AJ26" s="148"/>
-      <c r="AK26" s="148"/>
-      <c r="AL26" s="148"/>
-      <c r="AM26" s="148"/>
-      <c r="AN26" s="148"/>
-      <c r="AO26" s="148"/>
-      <c r="AP26" s="147" t="s">
+      <c r="Q26" s="134"/>
+      <c r="R26" s="134"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="134"/>
+      <c r="W26" s="134"/>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="134"/>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="134"/>
+      <c r="AB26" s="134"/>
+      <c r="AC26" s="134"/>
+      <c r="AD26" s="134"/>
+      <c r="AE26" s="134"/>
+      <c r="AF26" s="134"/>
+      <c r="AG26" s="134"/>
+      <c r="AH26" s="134"/>
+      <c r="AI26" s="134"/>
+      <c r="AJ26" s="134"/>
+      <c r="AK26" s="134"/>
+      <c r="AL26" s="134"/>
+      <c r="AM26" s="134"/>
+      <c r="AN26" s="134"/>
+      <c r="AO26" s="134"/>
+      <c r="AP26" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ26" s="147"/>
-      <c r="AR26" s="147"/>
-      <c r="AS26" s="147"/>
-      <c r="AT26" s="147"/>
-      <c r="AU26" s="147"/>
-      <c r="AV26" s="131" t="str">
+      <c r="AQ26" s="133"/>
+      <c r="AR26" s="133"/>
+      <c r="AS26" s="133"/>
+      <c r="AT26" s="133"/>
+      <c r="AU26" s="133"/>
+      <c r="AV26" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW26" s="131"/>
-      <c r="AX26" s="131"/>
-      <c r="AY26" s="131"/>
-      <c r="AZ26" s="131"/>
-      <c r="BA26" s="132"/>
-      <c r="BB26" s="130" t="s">
+      <c r="AW26" s="135"/>
+      <c r="AX26" s="135"/>
+      <c r="AY26" s="135"/>
+      <c r="AZ26" s="135"/>
+      <c r="BA26" s="136"/>
+      <c r="BB26" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC26" s="133"/>
-      <c r="BD26" s="133"/>
-      <c r="BE26" s="133"/>
-      <c r="BF26" s="134"/>
-      <c r="BG26" s="57"/>
-      <c r="BH26" s="58"/>
-      <c r="BI26" s="58"/>
-      <c r="BJ26" s="58"/>
-      <c r="BK26" s="58"/>
-      <c r="BL26" s="58"/>
-      <c r="BM26" s="58"/>
-      <c r="BN26" s="58"/>
-      <c r="BO26" s="58"/>
-      <c r="BP26" s="58"/>
-      <c r="BQ26" s="58"/>
-      <c r="BR26" s="58"/>
-      <c r="BS26" s="58"/>
-      <c r="BT26" s="135"/>
+      <c r="BC26" s="138"/>
+      <c r="BD26" s="138"/>
+      <c r="BE26" s="138"/>
+      <c r="BF26" s="139"/>
+      <c r="BG26" s="116"/>
+      <c r="BH26" s="117"/>
+      <c r="BI26" s="117"/>
+      <c r="BJ26" s="117"/>
+      <c r="BK26" s="117"/>
+      <c r="BL26" s="117"/>
+      <c r="BM26" s="117"/>
+      <c r="BN26" s="117"/>
+      <c r="BO26" s="117"/>
+      <c r="BP26" s="117"/>
+      <c r="BQ26" s="117"/>
+      <c r="BR26" s="117"/>
+      <c r="BS26" s="117"/>
+      <c r="BT26" s="140"/>
     </row>
     <row r="27" spans="2:72" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="147">
+      <c r="B27" s="133">
         <v>12</v>
       </c>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148" t="s">
+      <c r="C27" s="133"/>
+      <c r="D27" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148" t="s">
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="148"/>
-      <c r="AF27" s="148"/>
-      <c r="AG27" s="148"/>
-      <c r="AH27" s="148"/>
-      <c r="AI27" s="148"/>
-      <c r="AJ27" s="148"/>
-      <c r="AK27" s="148"/>
-      <c r="AL27" s="148"/>
-      <c r="AM27" s="148"/>
-      <c r="AN27" s="148"/>
-      <c r="AO27" s="148"/>
-      <c r="AP27" s="147" t="s">
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="134"/>
+      <c r="Y27" s="134"/>
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="134"/>
+      <c r="AB27" s="134"/>
+      <c r="AC27" s="134"/>
+      <c r="AD27" s="134"/>
+      <c r="AE27" s="134"/>
+      <c r="AF27" s="134"/>
+      <c r="AG27" s="134"/>
+      <c r="AH27" s="134"/>
+      <c r="AI27" s="134"/>
+      <c r="AJ27" s="134"/>
+      <c r="AK27" s="134"/>
+      <c r="AL27" s="134"/>
+      <c r="AM27" s="134"/>
+      <c r="AN27" s="134"/>
+      <c r="AO27" s="134"/>
+      <c r="AP27" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ27" s="147"/>
-      <c r="AR27" s="147"/>
-      <c r="AS27" s="147"/>
-      <c r="AT27" s="147"/>
-      <c r="AU27" s="147"/>
-      <c r="AV27" s="131" t="str">
+      <c r="AQ27" s="133"/>
+      <c r="AR27" s="133"/>
+      <c r="AS27" s="133"/>
+      <c r="AT27" s="133"/>
+      <c r="AU27" s="133"/>
+      <c r="AV27" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW27" s="131"/>
-      <c r="AX27" s="131"/>
-      <c r="AY27" s="131"/>
-      <c r="AZ27" s="131"/>
-      <c r="BA27" s="132"/>
-      <c r="BB27" s="130" t="s">
+      <c r="AW27" s="135"/>
+      <c r="AX27" s="135"/>
+      <c r="AY27" s="135"/>
+      <c r="AZ27" s="135"/>
+      <c r="BA27" s="136"/>
+      <c r="BB27" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC27" s="133"/>
-      <c r="BD27" s="133"/>
-      <c r="BE27" s="133"/>
-      <c r="BF27" s="134"/>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="58"/>
-      <c r="BI27" s="58"/>
-      <c r="BJ27" s="58"/>
-      <c r="BK27" s="58"/>
-      <c r="BL27" s="58"/>
-      <c r="BM27" s="58"/>
-      <c r="BN27" s="58"/>
-      <c r="BO27" s="58"/>
-      <c r="BP27" s="58"/>
-      <c r="BQ27" s="58"/>
-      <c r="BR27" s="58"/>
-      <c r="BS27" s="58"/>
-      <c r="BT27" s="135"/>
+      <c r="BC27" s="138"/>
+      <c r="BD27" s="138"/>
+      <c r="BE27" s="138"/>
+      <c r="BF27" s="139"/>
+      <c r="BG27" s="116"/>
+      <c r="BH27" s="117"/>
+      <c r="BI27" s="117"/>
+      <c r="BJ27" s="117"/>
+      <c r="BK27" s="117"/>
+      <c r="BL27" s="117"/>
+      <c r="BM27" s="117"/>
+      <c r="BN27" s="117"/>
+      <c r="BO27" s="117"/>
+      <c r="BP27" s="117"/>
+      <c r="BQ27" s="117"/>
+      <c r="BR27" s="117"/>
+      <c r="BS27" s="117"/>
+      <c r="BT27" s="140"/>
     </row>
     <row r="28" spans="2:72" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="147">
+      <c r="B28" s="133">
         <v>13</v>
       </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148" t="s">
+      <c r="C28" s="133"/>
+      <c r="D28" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148" t="s">
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="148"/>
-      <c r="AF28" s="148"/>
-      <c r="AG28" s="148"/>
-      <c r="AH28" s="148"/>
-      <c r="AI28" s="148"/>
-      <c r="AJ28" s="148"/>
-      <c r="AK28" s="148"/>
-      <c r="AL28" s="148"/>
-      <c r="AM28" s="148"/>
-      <c r="AN28" s="148"/>
-      <c r="AO28" s="148"/>
-      <c r="AP28" s="147" t="s">
+      <c r="Q28" s="134"/>
+      <c r="R28" s="134"/>
+      <c r="S28" s="134"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="134"/>
+      <c r="W28" s="134"/>
+      <c r="X28" s="134"/>
+      <c r="Y28" s="134"/>
+      <c r="Z28" s="134"/>
+      <c r="AA28" s="134"/>
+      <c r="AB28" s="134"/>
+      <c r="AC28" s="134"/>
+      <c r="AD28" s="134"/>
+      <c r="AE28" s="134"/>
+      <c r="AF28" s="134"/>
+      <c r="AG28" s="134"/>
+      <c r="AH28" s="134"/>
+      <c r="AI28" s="134"/>
+      <c r="AJ28" s="134"/>
+      <c r="AK28" s="134"/>
+      <c r="AL28" s="134"/>
+      <c r="AM28" s="134"/>
+      <c r="AN28" s="134"/>
+      <c r="AO28" s="134"/>
+      <c r="AP28" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ28" s="147"/>
-      <c r="AR28" s="147"/>
-      <c r="AS28" s="147"/>
-      <c r="AT28" s="147"/>
-      <c r="AU28" s="147"/>
-      <c r="AV28" s="131" t="str">
+      <c r="AQ28" s="133"/>
+      <c r="AR28" s="133"/>
+      <c r="AS28" s="133"/>
+      <c r="AT28" s="133"/>
+      <c r="AU28" s="133"/>
+      <c r="AV28" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW28" s="131"/>
-      <c r="AX28" s="131"/>
-      <c r="AY28" s="131"/>
-      <c r="AZ28" s="131"/>
-      <c r="BA28" s="132"/>
-      <c r="BB28" s="130" t="s">
+      <c r="AW28" s="135"/>
+      <c r="AX28" s="135"/>
+      <c r="AY28" s="135"/>
+      <c r="AZ28" s="135"/>
+      <c r="BA28" s="136"/>
+      <c r="BB28" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC28" s="133"/>
-      <c r="BD28" s="133"/>
-      <c r="BE28" s="133"/>
-      <c r="BF28" s="134"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="58"/>
-      <c r="BI28" s="58"/>
-      <c r="BJ28" s="58"/>
-      <c r="BK28" s="58"/>
-      <c r="BL28" s="58"/>
-      <c r="BM28" s="58"/>
-      <c r="BN28" s="58"/>
-      <c r="BO28" s="58"/>
-      <c r="BP28" s="58"/>
-      <c r="BQ28" s="58"/>
-      <c r="BR28" s="58"/>
-      <c r="BS28" s="58"/>
-      <c r="BT28" s="135"/>
+      <c r="BC28" s="138"/>
+      <c r="BD28" s="138"/>
+      <c r="BE28" s="138"/>
+      <c r="BF28" s="139"/>
+      <c r="BG28" s="116"/>
+      <c r="BH28" s="117"/>
+      <c r="BI28" s="117"/>
+      <c r="BJ28" s="117"/>
+      <c r="BK28" s="117"/>
+      <c r="BL28" s="117"/>
+      <c r="BM28" s="117"/>
+      <c r="BN28" s="117"/>
+      <c r="BO28" s="117"/>
+      <c r="BP28" s="117"/>
+      <c r="BQ28" s="117"/>
+      <c r="BR28" s="117"/>
+      <c r="BS28" s="117"/>
+      <c r="BT28" s="140"/>
     </row>
     <row r="29" spans="2:72" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="147">
+      <c r="B29" s="133">
         <v>14</v>
       </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148" t="s">
+      <c r="C29" s="133"/>
+      <c r="D29" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="148"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="148"/>
-      <c r="N29" s="148"/>
-      <c r="O29" s="148"/>
-      <c r="P29" s="148" t="s">
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="134"/>
+      <c r="P29" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="148"/>
-      <c r="AF29" s="148"/>
-      <c r="AG29" s="148"/>
-      <c r="AH29" s="148"/>
-      <c r="AI29" s="148"/>
-      <c r="AJ29" s="148"/>
-      <c r="AK29" s="148"/>
-      <c r="AL29" s="148"/>
-      <c r="AM29" s="148"/>
-      <c r="AN29" s="148"/>
-      <c r="AO29" s="148"/>
-      <c r="AP29" s="147" t="s">
+      <c r="Q29" s="134"/>
+      <c r="R29" s="134"/>
+      <c r="S29" s="134"/>
+      <c r="T29" s="134"/>
+      <c r="U29" s="134"/>
+      <c r="V29" s="134"/>
+      <c r="W29" s="134"/>
+      <c r="X29" s="134"/>
+      <c r="Y29" s="134"/>
+      <c r="Z29" s="134"/>
+      <c r="AA29" s="134"/>
+      <c r="AB29" s="134"/>
+      <c r="AC29" s="134"/>
+      <c r="AD29" s="134"/>
+      <c r="AE29" s="134"/>
+      <c r="AF29" s="134"/>
+      <c r="AG29" s="134"/>
+      <c r="AH29" s="134"/>
+      <c r="AI29" s="134"/>
+      <c r="AJ29" s="134"/>
+      <c r="AK29" s="134"/>
+      <c r="AL29" s="134"/>
+      <c r="AM29" s="134"/>
+      <c r="AN29" s="134"/>
+      <c r="AO29" s="134"/>
+      <c r="AP29" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ29" s="147"/>
-      <c r="AR29" s="147"/>
-      <c r="AS29" s="147"/>
-      <c r="AT29" s="147"/>
-      <c r="AU29" s="147"/>
-      <c r="AV29" s="131" t="str">
+      <c r="AQ29" s="133"/>
+      <c r="AR29" s="133"/>
+      <c r="AS29" s="133"/>
+      <c r="AT29" s="133"/>
+      <c r="AU29" s="133"/>
+      <c r="AV29" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW29" s="131"/>
-      <c r="AX29" s="131"/>
-      <c r="AY29" s="131"/>
-      <c r="AZ29" s="131"/>
-      <c r="BA29" s="132"/>
-      <c r="BB29" s="130" t="s">
+      <c r="AW29" s="135"/>
+      <c r="AX29" s="135"/>
+      <c r="AY29" s="135"/>
+      <c r="AZ29" s="135"/>
+      <c r="BA29" s="136"/>
+      <c r="BB29" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC29" s="133"/>
-      <c r="BD29" s="133"/>
-      <c r="BE29" s="133"/>
-      <c r="BF29" s="134"/>
-      <c r="BG29" s="57"/>
-      <c r="BH29" s="58"/>
-      <c r="BI29" s="58"/>
-      <c r="BJ29" s="58"/>
-      <c r="BK29" s="58"/>
-      <c r="BL29" s="58"/>
-      <c r="BM29" s="58"/>
-      <c r="BN29" s="58"/>
-      <c r="BO29" s="58"/>
-      <c r="BP29" s="58"/>
-      <c r="BQ29" s="58"/>
-      <c r="BR29" s="58"/>
-      <c r="BS29" s="58"/>
-      <c r="BT29" s="135"/>
+      <c r="BC29" s="138"/>
+      <c r="BD29" s="138"/>
+      <c r="BE29" s="138"/>
+      <c r="BF29" s="139"/>
+      <c r="BG29" s="116"/>
+      <c r="BH29" s="117"/>
+      <c r="BI29" s="117"/>
+      <c r="BJ29" s="117"/>
+      <c r="BK29" s="117"/>
+      <c r="BL29" s="117"/>
+      <c r="BM29" s="117"/>
+      <c r="BN29" s="117"/>
+      <c r="BO29" s="117"/>
+      <c r="BP29" s="117"/>
+      <c r="BQ29" s="117"/>
+      <c r="BR29" s="117"/>
+      <c r="BS29" s="117"/>
+      <c r="BT29" s="140"/>
     </row>
     <row r="30" spans="2:72" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="147">
+      <c r="B30" s="133">
         <v>15</v>
       </c>
-      <c r="C30" s="147"/>
-      <c r="D30" s="148" t="s">
+      <c r="C30" s="133"/>
+      <c r="D30" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="148"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="148"/>
-      <c r="N30" s="148"/>
-      <c r="O30" s="148"/>
-      <c r="P30" s="148" t="s">
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="148"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="148"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="148"/>
-      <c r="AF30" s="148"/>
-      <c r="AG30" s="148"/>
-      <c r="AH30" s="148"/>
-      <c r="AI30" s="148"/>
-      <c r="AJ30" s="148"/>
-      <c r="AK30" s="148"/>
-      <c r="AL30" s="148"/>
-      <c r="AM30" s="148"/>
-      <c r="AN30" s="148"/>
-      <c r="AO30" s="148"/>
-      <c r="AP30" s="147" t="s">
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="134"/>
+      <c r="Z30" s="134"/>
+      <c r="AA30" s="134"/>
+      <c r="AB30" s="134"/>
+      <c r="AC30" s="134"/>
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="134"/>
+      <c r="AF30" s="134"/>
+      <c r="AG30" s="134"/>
+      <c r="AH30" s="134"/>
+      <c r="AI30" s="134"/>
+      <c r="AJ30" s="134"/>
+      <c r="AK30" s="134"/>
+      <c r="AL30" s="134"/>
+      <c r="AM30" s="134"/>
+      <c r="AN30" s="134"/>
+      <c r="AO30" s="134"/>
+      <c r="AP30" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ30" s="147"/>
-      <c r="AR30" s="147"/>
-      <c r="AS30" s="147"/>
-      <c r="AT30" s="147"/>
-      <c r="AU30" s="147"/>
-      <c r="AV30" s="131" t="str">
+      <c r="AQ30" s="133"/>
+      <c r="AR30" s="133"/>
+      <c r="AS30" s="133"/>
+      <c r="AT30" s="133"/>
+      <c r="AU30" s="133"/>
+      <c r="AV30" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW30" s="131"/>
-      <c r="AX30" s="131"/>
-      <c r="AY30" s="131"/>
-      <c r="AZ30" s="131"/>
-      <c r="BA30" s="132"/>
-      <c r="BB30" s="130" t="s">
+      <c r="AW30" s="135"/>
+      <c r="AX30" s="135"/>
+      <c r="AY30" s="135"/>
+      <c r="AZ30" s="135"/>
+      <c r="BA30" s="136"/>
+      <c r="BB30" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC30" s="133"/>
-      <c r="BD30" s="133"/>
-      <c r="BE30" s="133"/>
-      <c r="BF30" s="134"/>
-      <c r="BG30" s="57"/>
-      <c r="BH30" s="58"/>
-      <c r="BI30" s="58"/>
-      <c r="BJ30" s="58"/>
-      <c r="BK30" s="58"/>
-      <c r="BL30" s="58"/>
-      <c r="BM30" s="58"/>
-      <c r="BN30" s="58"/>
-      <c r="BO30" s="58"/>
-      <c r="BP30" s="58"/>
-      <c r="BQ30" s="58"/>
-      <c r="BR30" s="58"/>
-      <c r="BS30" s="58"/>
-      <c r="BT30" s="135"/>
+      <c r="BC30" s="138"/>
+      <c r="BD30" s="138"/>
+      <c r="BE30" s="138"/>
+      <c r="BF30" s="139"/>
+      <c r="BG30" s="116"/>
+      <c r="BH30" s="117"/>
+      <c r="BI30" s="117"/>
+      <c r="BJ30" s="117"/>
+      <c r="BK30" s="117"/>
+      <c r="BL30" s="117"/>
+      <c r="BM30" s="117"/>
+      <c r="BN30" s="117"/>
+      <c r="BO30" s="117"/>
+      <c r="BP30" s="117"/>
+      <c r="BQ30" s="117"/>
+      <c r="BR30" s="117"/>
+      <c r="BS30" s="117"/>
+      <c r="BT30" s="140"/>
     </row>
     <row r="31" spans="2:72" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="147">
+      <c r="B31" s="133">
         <v>16</v>
       </c>
-      <c r="C31" s="147"/>
-      <c r="D31" s="148" t="s">
+      <c r="C31" s="133"/>
+      <c r="D31" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="148"/>
-      <c r="K31" s="148"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="148"/>
-      <c r="N31" s="148"/>
-      <c r="O31" s="148"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="134"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="134"/>
       <c r="P31" s="149" t="s">
         <v>113</v>
       </c>
@@ -7664,64 +8120,64 @@
       <c r="AM31" s="149"/>
       <c r="AN31" s="149"/>
       <c r="AO31" s="149"/>
-      <c r="AP31" s="147" t="s">
+      <c r="AP31" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ31" s="147"/>
-      <c r="AR31" s="147"/>
-      <c r="AS31" s="147"/>
-      <c r="AT31" s="147"/>
-      <c r="AU31" s="147"/>
-      <c r="AV31" s="131" t="str">
+      <c r="AQ31" s="133"/>
+      <c r="AR31" s="133"/>
+      <c r="AS31" s="133"/>
+      <c r="AT31" s="133"/>
+      <c r="AU31" s="133"/>
+      <c r="AV31" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW31" s="131"/>
-      <c r="AX31" s="131"/>
-      <c r="AY31" s="131"/>
-      <c r="AZ31" s="131"/>
-      <c r="BA31" s="132"/>
-      <c r="BB31" s="130" t="s">
+      <c r="AW31" s="135"/>
+      <c r="AX31" s="135"/>
+      <c r="AY31" s="135"/>
+      <c r="AZ31" s="135"/>
+      <c r="BA31" s="136"/>
+      <c r="BB31" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC31" s="133"/>
-      <c r="BD31" s="133"/>
-      <c r="BE31" s="133"/>
-      <c r="BF31" s="134"/>
-      <c r="BG31" s="57"/>
-      <c r="BH31" s="58"/>
-      <c r="BI31" s="58"/>
-      <c r="BJ31" s="58"/>
-      <c r="BK31" s="58"/>
-      <c r="BL31" s="58"/>
-      <c r="BM31" s="58"/>
-      <c r="BN31" s="58"/>
-      <c r="BO31" s="58"/>
-      <c r="BP31" s="58"/>
-      <c r="BQ31" s="58"/>
-      <c r="BR31" s="58"/>
-      <c r="BS31" s="58"/>
-      <c r="BT31" s="135"/>
+      <c r="BC31" s="138"/>
+      <c r="BD31" s="138"/>
+      <c r="BE31" s="138"/>
+      <c r="BF31" s="139"/>
+      <c r="BG31" s="116"/>
+      <c r="BH31" s="117"/>
+      <c r="BI31" s="117"/>
+      <c r="BJ31" s="117"/>
+      <c r="BK31" s="117"/>
+      <c r="BL31" s="117"/>
+      <c r="BM31" s="117"/>
+      <c r="BN31" s="117"/>
+      <c r="BO31" s="117"/>
+      <c r="BP31" s="117"/>
+      <c r="BQ31" s="117"/>
+      <c r="BR31" s="117"/>
+      <c r="BS31" s="117"/>
+      <c r="BT31" s="140"/>
     </row>
     <row r="32" spans="2:72" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="147">
+      <c r="B32" s="133">
         <v>17</v>
       </c>
-      <c r="C32" s="147"/>
-      <c r="D32" s="148" t="s">
+      <c r="C32" s="133"/>
+      <c r="D32" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
-      <c r="K32" s="148"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="148"/>
-      <c r="O32" s="148"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="134"/>
+      <c r="N32" s="134"/>
+      <c r="O32" s="134"/>
       <c r="P32" s="149" t="s">
         <v>115</v>
       </c>
@@ -7750,44 +8206,44 @@
       <c r="AM32" s="149"/>
       <c r="AN32" s="149"/>
       <c r="AO32" s="149"/>
-      <c r="AP32" s="147" t="s">
+      <c r="AP32" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="AQ32" s="147"/>
-      <c r="AR32" s="147"/>
-      <c r="AS32" s="147"/>
-      <c r="AT32" s="147"/>
-      <c r="AU32" s="147"/>
-      <c r="AV32" s="131" t="str">
+      <c r="AQ32" s="133"/>
+      <c r="AR32" s="133"/>
+      <c r="AS32" s="133"/>
+      <c r="AT32" s="133"/>
+      <c r="AU32" s="133"/>
+      <c r="AV32" s="135" t="str">
         <f t="shared" si="0"/>
         <v>19/02/2025</v>
       </c>
-      <c r="AW32" s="131"/>
-      <c r="AX32" s="131"/>
-      <c r="AY32" s="131"/>
-      <c r="AZ32" s="131"/>
-      <c r="BA32" s="132"/>
-      <c r="BB32" s="130" t="s">
+      <c r="AW32" s="135"/>
+      <c r="AX32" s="135"/>
+      <c r="AY32" s="135"/>
+      <c r="AZ32" s="135"/>
+      <c r="BA32" s="136"/>
+      <c r="BB32" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="BC32" s="133"/>
-      <c r="BD32" s="133"/>
-      <c r="BE32" s="133"/>
-      <c r="BF32" s="134"/>
-      <c r="BG32" s="57"/>
-      <c r="BH32" s="58"/>
-      <c r="BI32" s="58"/>
-      <c r="BJ32" s="58"/>
-      <c r="BK32" s="58"/>
-      <c r="BL32" s="58"/>
-      <c r="BM32" s="58"/>
-      <c r="BN32" s="58"/>
-      <c r="BO32" s="58"/>
-      <c r="BP32" s="58"/>
-      <c r="BQ32" s="58"/>
-      <c r="BR32" s="58"/>
-      <c r="BS32" s="58"/>
-      <c r="BT32" s="135"/>
+      <c r="BC32" s="138"/>
+      <c r="BD32" s="138"/>
+      <c r="BE32" s="138"/>
+      <c r="BF32" s="139"/>
+      <c r="BG32" s="116"/>
+      <c r="BH32" s="117"/>
+      <c r="BI32" s="117"/>
+      <c r="BJ32" s="117"/>
+      <c r="BK32" s="117"/>
+      <c r="BL32" s="117"/>
+      <c r="BM32" s="117"/>
+      <c r="BN32" s="117"/>
+      <c r="BO32" s="117"/>
+      <c r="BP32" s="117"/>
+      <c r="BQ32" s="117"/>
+      <c r="BR32" s="117"/>
+      <c r="BS32" s="117"/>
+      <c r="BT32" s="140"/>
     </row>
     <row r="33" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8759,6 +9215,131 @@
     <row r="1000" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="149">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="P31:AO31"/>
+    <mergeCell ref="AP31:AU31"/>
+    <mergeCell ref="AV31:BA31"/>
+    <mergeCell ref="BB31:BF31"/>
+    <mergeCell ref="BG31:BT31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="P32:AO32"/>
+    <mergeCell ref="AP32:AU32"/>
+    <mergeCell ref="AV32:BA32"/>
+    <mergeCell ref="BB32:BF32"/>
+    <mergeCell ref="BG32:BT32"/>
+    <mergeCell ref="AP27:AU27"/>
+    <mergeCell ref="AV27:BA27"/>
+    <mergeCell ref="BB27:BF27"/>
+    <mergeCell ref="BG27:BT27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:O28"/>
+    <mergeCell ref="P28:AO28"/>
+    <mergeCell ref="AP28:AU28"/>
+    <mergeCell ref="AV28:BA28"/>
+    <mergeCell ref="BB28:BF28"/>
+    <mergeCell ref="BG28:BT28"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="AI4:BI4"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="F7:M7"/>
+    <mergeCell ref="BA12:BF12"/>
+    <mergeCell ref="BA13:BF13"/>
+    <mergeCell ref="N6:BI7"/>
+    <mergeCell ref="BA9:BF9"/>
+    <mergeCell ref="BA10:BF10"/>
+    <mergeCell ref="BA11:BF11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="P15:AO15"/>
+    <mergeCell ref="AP15:AU15"/>
+    <mergeCell ref="AV15:BA15"/>
+    <mergeCell ref="BB15:BF15"/>
+    <mergeCell ref="BG15:BT15"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:O16"/>
+    <mergeCell ref="P16:AO16"/>
+    <mergeCell ref="AP16:AU16"/>
+    <mergeCell ref="AV16:BA16"/>
+    <mergeCell ref="BB16:BF16"/>
+    <mergeCell ref="BG16:BT16"/>
+    <mergeCell ref="P20:AO20"/>
+    <mergeCell ref="AP20:AU20"/>
+    <mergeCell ref="AV20:BA20"/>
+    <mergeCell ref="BB20:BF20"/>
+    <mergeCell ref="BG20:BT20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:O19"/>
+    <mergeCell ref="P19:AO19"/>
+    <mergeCell ref="AP19:AU19"/>
+    <mergeCell ref="AV19:BA19"/>
+    <mergeCell ref="BB19:BF19"/>
+    <mergeCell ref="BG19:BT19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:O20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="P17:AO17"/>
+    <mergeCell ref="AP17:AU17"/>
+    <mergeCell ref="AV17:BA17"/>
+    <mergeCell ref="BB17:BF17"/>
+    <mergeCell ref="BG17:BT17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="P18:AO18"/>
+    <mergeCell ref="AP18:AU18"/>
+    <mergeCell ref="AV18:BA18"/>
+    <mergeCell ref="BB18:BF18"/>
+    <mergeCell ref="BG18:BT18"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="P23:AO23"/>
+    <mergeCell ref="AP23:AU23"/>
+    <mergeCell ref="AV23:BA23"/>
+    <mergeCell ref="BB23:BF23"/>
+    <mergeCell ref="BG23:BT23"/>
+    <mergeCell ref="BB21:BF21"/>
+    <mergeCell ref="BG21:BT21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="P22:AO22"/>
+    <mergeCell ref="AP22:AU22"/>
+    <mergeCell ref="AV22:BA22"/>
+    <mergeCell ref="BB22:BF22"/>
+    <mergeCell ref="BG22:BT22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:O21"/>
+    <mergeCell ref="P21:AO21"/>
+    <mergeCell ref="AP21:AU21"/>
+    <mergeCell ref="AV21:BA21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:O24"/>
+    <mergeCell ref="P24:AO24"/>
+    <mergeCell ref="AP24:AU24"/>
+    <mergeCell ref="AV24:BA24"/>
+    <mergeCell ref="BB24:BF24"/>
+    <mergeCell ref="BG24:BT24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="P25:AO25"/>
+    <mergeCell ref="AP25:AU25"/>
+    <mergeCell ref="AV25:BA25"/>
+    <mergeCell ref="BB25:BF25"/>
+    <mergeCell ref="BG25:BT25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:O26"/>
     <mergeCell ref="P26:AO26"/>
@@ -8783,131 +9364,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:O27"/>
     <mergeCell ref="P27:AO27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:O24"/>
-    <mergeCell ref="P24:AO24"/>
-    <mergeCell ref="AP24:AU24"/>
-    <mergeCell ref="AV24:BA24"/>
-    <mergeCell ref="BB24:BF24"/>
-    <mergeCell ref="BG24:BT24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="P25:AO25"/>
-    <mergeCell ref="AP25:AU25"/>
-    <mergeCell ref="AV25:BA25"/>
-    <mergeCell ref="BB25:BF25"/>
-    <mergeCell ref="BG25:BT25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:O23"/>
-    <mergeCell ref="P23:AO23"/>
-    <mergeCell ref="AP23:AU23"/>
-    <mergeCell ref="AV23:BA23"/>
-    <mergeCell ref="BB23:BF23"/>
-    <mergeCell ref="BG23:BT23"/>
-    <mergeCell ref="BB21:BF21"/>
-    <mergeCell ref="BG21:BT21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="P22:AO22"/>
-    <mergeCell ref="AP22:AU22"/>
-    <mergeCell ref="AV22:BA22"/>
-    <mergeCell ref="BB22:BF22"/>
-    <mergeCell ref="BG22:BT22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:O21"/>
-    <mergeCell ref="P21:AO21"/>
-    <mergeCell ref="AP21:AU21"/>
-    <mergeCell ref="AV21:BA21"/>
-    <mergeCell ref="AP17:AU17"/>
-    <mergeCell ref="AV17:BA17"/>
-    <mergeCell ref="BB17:BF17"/>
-    <mergeCell ref="BG17:BT17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="P18:AO18"/>
-    <mergeCell ref="AP18:AU18"/>
-    <mergeCell ref="AV18:BA18"/>
-    <mergeCell ref="BB18:BF18"/>
-    <mergeCell ref="BG18:BT18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:O16"/>
-    <mergeCell ref="P16:AO16"/>
-    <mergeCell ref="AP16:AU16"/>
-    <mergeCell ref="AV16:BA16"/>
-    <mergeCell ref="BB16:BF16"/>
-    <mergeCell ref="BG16:BT16"/>
-    <mergeCell ref="P20:AO20"/>
-    <mergeCell ref="AP20:AU20"/>
-    <mergeCell ref="AV20:BA20"/>
-    <mergeCell ref="BB20:BF20"/>
-    <mergeCell ref="BG20:BT20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:O19"/>
-    <mergeCell ref="P19:AO19"/>
-    <mergeCell ref="AP19:AU19"/>
-    <mergeCell ref="AV19:BA19"/>
-    <mergeCell ref="BB19:BF19"/>
-    <mergeCell ref="BG19:BT19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="P17:AO17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="P15:AO15"/>
-    <mergeCell ref="AP15:AU15"/>
-    <mergeCell ref="AV15:BA15"/>
-    <mergeCell ref="BB15:BF15"/>
-    <mergeCell ref="BG15:BT15"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="AI4:BI4"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="F6:M6"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="BA12:BF12"/>
-    <mergeCell ref="BA13:BF13"/>
-    <mergeCell ref="N6:BI7"/>
-    <mergeCell ref="BA9:BF9"/>
-    <mergeCell ref="BA10:BF10"/>
-    <mergeCell ref="BA11:BF11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="AP27:AU27"/>
-    <mergeCell ref="AV27:BA27"/>
-    <mergeCell ref="BB27:BF27"/>
-    <mergeCell ref="BG27:BT27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:O28"/>
-    <mergeCell ref="P28:AO28"/>
-    <mergeCell ref="AP28:AU28"/>
-    <mergeCell ref="AV28:BA28"/>
-    <mergeCell ref="BB28:BF28"/>
-    <mergeCell ref="BG28:BT28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="P31:AO31"/>
-    <mergeCell ref="AP31:AU31"/>
-    <mergeCell ref="AV31:BA31"/>
-    <mergeCell ref="BB31:BF31"/>
-    <mergeCell ref="BG31:BT31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="P32:AO32"/>
-    <mergeCell ref="AP32:AU32"/>
-    <mergeCell ref="AV32:BA32"/>
-    <mergeCell ref="BB32:BF32"/>
-    <mergeCell ref="BG32:BT32"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BB16:BB32" xr:uid="{8CC20FF7-024E-4515-86E0-30F43A7D1768}">
